--- a/static.xlsx
+++ b/static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC89E1-D84E-47BF-8A80-AFF1CA40C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36417197-F330-4F68-9624-E6B536367C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -773,10 +773,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FUN1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1220,10 +1216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OPEN1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OPEN2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1664,6 +1656,14 @@
   </si>
   <si>
     <t>O3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヨウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2158,7 +2158,7 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2172,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>484</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -2186,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -2200,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -2214,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2228,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -2242,10 +2242,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -2256,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2270,10 +2270,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -2284,10 +2284,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -2312,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -2336,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -2374,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
@@ -2388,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -2400,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -2412,7 +2412,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>56</v>
@@ -2427,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -2440,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -2452,7 +2452,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
@@ -2466,7 +2466,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -2478,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -2490,7 +2490,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -2504,7 +2504,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -2516,7 +2516,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
@@ -2528,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -2554,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6">
@@ -2566,7 +2566,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>68</v>
@@ -2580,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -2592,7 +2592,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9">
@@ -2604,7 +2604,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>72</v>
@@ -2618,7 +2618,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -2630,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -2642,7 +2642,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>76</v>
@@ -2656,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -2668,7 +2668,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -2680,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>80</v>
@@ -2694,7 +2694,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -2706,7 +2706,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9">
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -2732,7 +2732,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -2744,7 +2744,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6">
@@ -2756,7 +2756,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>84</v>
@@ -2770,7 +2770,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -2782,7 +2782,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -2794,7 +2794,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>88</v>
@@ -2808,7 +2808,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -2820,7 +2820,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9">
@@ -2832,7 +2832,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -2846,7 +2846,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -2858,7 +2858,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -2870,7 +2870,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>96</v>
@@ -2884,7 +2884,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -2896,7 +2896,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -2908,7 +2908,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>3</v>
@@ -2922,7 +2922,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -2934,7 +2934,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -2946,7 +2946,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>100</v>
@@ -2960,7 +2960,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -2972,7 +2972,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -2984,7 +2984,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>104</v>
@@ -2998,7 +2998,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -3010,7 +3010,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -3022,7 +3022,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>108</v>
@@ -3036,7 +3036,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -3048,7 +3048,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9">
@@ -3060,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>112</v>
@@ -3074,7 +3074,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -3086,7 +3086,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -3098,7 +3098,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>4</v>
@@ -3112,7 +3112,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -3124,7 +3124,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6">
@@ -3136,7 +3136,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>116</v>
@@ -3150,7 +3150,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -3162,7 +3162,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9">
@@ -3174,7 +3174,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>120</v>
@@ -3188,7 +3188,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -3200,7 +3200,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -3212,7 +3212,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>124</v>
@@ -3226,7 +3226,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -3238,7 +3238,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -3250,7 +3250,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>128</v>
@@ -3264,7 +3264,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -3276,7 +3276,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9">
@@ -3288,7 +3288,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -3302,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -3314,7 +3314,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6">
@@ -3326,7 +3326,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>132</v>
@@ -3340,7 +3340,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -3352,7 +3352,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -3364,7 +3364,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>136</v>
@@ -3378,7 +3378,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -3390,7 +3390,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9">
@@ -3402,7 +3402,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>140</v>
@@ -3416,7 +3416,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -3428,7 +3428,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
@@ -3440,7 +3440,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>144</v>
@@ -3454,7 +3454,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -3466,7 +3466,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -3478,7 +3478,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>15</v>
@@ -3492,7 +3492,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -3504,7 +3504,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -3516,7 +3516,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>148</v>
@@ -3530,7 +3530,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -3542,7 +3542,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
@@ -3554,7 +3554,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>152</v>
@@ -3568,7 +3568,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -3580,7 +3580,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
@@ -3592,7 +3592,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>156</v>
@@ -3606,7 +3606,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -3618,7 +3618,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="9">
@@ -3630,7 +3630,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>160</v>
@@ -3644,7 +3644,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -3656,7 +3656,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
@@ -3668,7 +3668,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>16</v>
@@ -3682,7 +3682,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -3694,7 +3694,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="6">
@@ -3706,7 +3706,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>164</v>
@@ -3720,7 +3720,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -3732,7 +3732,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="9">
@@ -3744,7 +3744,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>168</v>
@@ -3758,7 +3758,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -3770,7 +3770,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
@@ -3782,7 +3782,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>172</v>
@@ -3796,7 +3796,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -3808,7 +3808,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
@@ -3820,7 +3820,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>176</v>
@@ -3834,7 +3834,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -3846,7 +3846,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9">
@@ -3858,7 +3858,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>17</v>
@@ -3872,7 +3872,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -3884,7 +3884,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6">
@@ -3896,7 +3896,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>180</v>
@@ -3910,7 +3910,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -3922,7 +3922,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
@@ -3934,7 +3934,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>184</v>
@@ -3948,7 +3948,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -3960,7 +3960,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9">
@@ -3972,7 +3972,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>188</v>
@@ -3986,7 +3986,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -3998,7 +3998,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9">
@@ -5913,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5928,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
+        <v>485</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5942,10 +5942,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -5956,10 +5956,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -5970,10 +5970,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -5984,10 +5984,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -5998,10 +5998,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -6012,10 +6012,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -6026,10 +6026,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -6040,10 +6040,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -6054,7 +6054,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -6068,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -6080,7 +6080,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -6092,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -6118,7 +6118,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -6130,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
@@ -6144,7 +6144,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -6156,7 +6156,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -6168,7 +6168,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>56</v>
@@ -6183,7 +6183,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -6196,7 +6196,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -6208,7 +6208,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
@@ -6222,7 +6222,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -6234,7 +6234,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -6246,7 +6246,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>64</v>
@@ -6260,7 +6260,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -6272,7 +6272,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
@@ -6284,7 +6284,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>1</v>
@@ -6298,7 +6298,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -6310,7 +6310,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6">
@@ -6322,7 +6322,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>68</v>
@@ -6336,7 +6336,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -6348,7 +6348,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9">
@@ -6360,7 +6360,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>72</v>
@@ -6374,7 +6374,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -6386,7 +6386,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -6398,7 +6398,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>76</v>
@@ -6412,7 +6412,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -6424,7 +6424,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -6436,7 +6436,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>80</v>
@@ -6450,7 +6450,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -6462,7 +6462,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9">
@@ -6474,7 +6474,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -6488,7 +6488,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -6500,7 +6500,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6">
@@ -6512,7 +6512,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>84</v>
@@ -6526,7 +6526,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -6538,7 +6538,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -6550,7 +6550,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>88</v>
@@ -6564,7 +6564,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -6576,7 +6576,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9">
@@ -6588,7 +6588,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -6602,7 +6602,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -6614,7 +6614,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -6626,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>96</v>
@@ -6640,7 +6640,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -6652,7 +6652,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -6664,7 +6664,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>3</v>
@@ -6678,7 +6678,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -6690,7 +6690,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -6702,7 +6702,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>100</v>
@@ -6716,7 +6716,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -6728,7 +6728,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -6740,7 +6740,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>104</v>
@@ -6754,7 +6754,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -6766,7 +6766,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -6778,7 +6778,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>108</v>
@@ -6792,7 +6792,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -6804,7 +6804,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9">
@@ -6816,7 +6816,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>112</v>
@@ -6830,7 +6830,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -6842,7 +6842,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -6854,7 +6854,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>4</v>
@@ -6868,7 +6868,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -6880,7 +6880,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6">
@@ -6892,7 +6892,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>116</v>
@@ -6906,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -6918,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9">
@@ -6930,7 +6930,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>120</v>
@@ -6944,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -6956,7 +6956,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -6968,7 +6968,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>124</v>
@@ -6982,7 +6982,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -6994,7 +6994,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -7006,7 +7006,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>128</v>
@@ -7020,7 +7020,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -7032,7 +7032,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="9">
@@ -7044,7 +7044,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -7058,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -7070,7 +7070,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6">
@@ -7082,7 +7082,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>132</v>
@@ -7096,7 +7096,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -7108,7 +7108,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -7120,7 +7120,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>136</v>
@@ -7134,7 +7134,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -7146,7 +7146,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9">
@@ -7158,7 +7158,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>140</v>
@@ -7172,7 +7172,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -7184,7 +7184,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
@@ -7196,7 +7196,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>144</v>
@@ -7210,7 +7210,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -7222,7 +7222,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -7234,7 +7234,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>15</v>
@@ -7248,7 +7248,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -7260,7 +7260,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -7272,7 +7272,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>148</v>
@@ -7286,7 +7286,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -7298,7 +7298,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
@@ -7310,7 +7310,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>152</v>
@@ -7324,7 +7324,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -7336,7 +7336,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
@@ -7348,7 +7348,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>156</v>
@@ -7362,7 +7362,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -7374,7 +7374,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="9">
@@ -7386,7 +7386,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>160</v>
@@ -7400,7 +7400,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -7412,7 +7412,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
@@ -7424,7 +7424,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>16</v>
@@ -7438,7 +7438,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -7450,7 +7450,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="6">
@@ -7462,7 +7462,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>164</v>
@@ -7476,7 +7476,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -7488,7 +7488,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="9">
@@ -7500,7 +7500,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>168</v>
@@ -7514,7 +7514,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -7526,7 +7526,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
@@ -7538,7 +7538,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>172</v>
@@ -7552,7 +7552,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -7564,7 +7564,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
@@ -7576,7 +7576,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>176</v>
@@ -7590,7 +7590,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -7602,7 +7602,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9">
@@ -7614,7 +7614,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>17</v>
@@ -7628,7 +7628,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -7640,7 +7640,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6">
@@ -7652,7 +7652,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>180</v>
@@ -7666,7 +7666,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -7678,7 +7678,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
@@ -7690,7 +7690,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>184</v>
@@ -7704,7 +7704,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -7716,7 +7716,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9">
@@ -7728,7 +7728,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>188</v>
@@ -7742,7 +7742,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -7754,7 +7754,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9">

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36417197-F330-4F68-9624-E6B536367C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE85FE-8495-48AA-9826-DB8801BB6792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="FUN" sheetId="3" r:id="rId1"/>
@@ -39,25 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="486">
-  <si>
-    <t>MIDDLE5</t>
-  </si>
-  <si>
-    <t>MIDDLE10</t>
-  </si>
-  <si>
-    <t>MIDDLE15</t>
-  </si>
-  <si>
-    <t>MIDDLE20</t>
-  </si>
-  <si>
-    <t>MIDDLE25</t>
-  </si>
-  <si>
-    <t>MIDDLE30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="576">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID13</t>
   </si>
   <si>
@@ -89,15 +67,6 @@
     <t>MID30</t>
   </si>
   <si>
-    <t>MIDDLE35</t>
-  </si>
-  <si>
-    <t>MIDDLE40</t>
-  </si>
-  <si>
-    <t>MIDDLE45</t>
-  </si>
-  <si>
     <t>MID2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,10 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID17</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID20</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -245,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID23</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,10 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID26</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,10 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID32</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,10 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID35</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -309,10 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID38</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,10 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID41</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,10 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID47</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,10 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID50</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -373,10 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID53</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -389,10 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID56</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,10 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID62</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -421,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID65</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -437,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID68</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -453,10 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID71</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE26</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID77</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -485,10 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID80</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,10 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID83</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID86</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,10 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID92</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,10 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID95</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -565,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID98</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE34</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,10 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID107</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE37</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID110</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -629,10 +490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE38</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID113</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -645,10 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE39</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID116</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,10 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE41</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID122</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -677,10 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE42</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID125</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -693,10 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE43</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID128</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,10 +550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE44</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID131</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -725,10 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE46</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID137</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE47</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID140</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,10 +586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIDDLE48</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MID143</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1664,6 +1489,424 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O7</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>O9</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>O11</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>O17</t>
+  </si>
+  <si>
+    <t>O18</t>
+  </si>
+  <si>
+    <t>O19</t>
+  </si>
+  <si>
+    <t>O20</t>
+  </si>
+  <si>
+    <t>O21</t>
+  </si>
+  <si>
+    <t>O22</t>
+  </si>
+  <si>
+    <t>O23</t>
+  </si>
+  <si>
+    <t>O24</t>
+  </si>
+  <si>
+    <t>O25</t>
+  </si>
+  <si>
+    <t>O26</t>
+  </si>
+  <si>
+    <t>O27</t>
+  </si>
+  <si>
+    <t>O28</t>
+  </si>
+  <si>
+    <t>O29</t>
+  </si>
+  <si>
+    <t>O30</t>
+  </si>
+  <si>
+    <t>O31</t>
+  </si>
+  <si>
+    <t>O32</t>
+  </si>
+  <si>
+    <t>O33</t>
+  </si>
+  <si>
+    <t>O34</t>
+  </si>
+  <si>
+    <t>O35</t>
+  </si>
+  <si>
+    <t>O36</t>
+  </si>
+  <si>
+    <t>O37</t>
+  </si>
+  <si>
+    <t>O38</t>
+  </si>
+  <si>
+    <t>O39</t>
+  </si>
+  <si>
+    <t>O40</t>
+  </si>
+  <si>
+    <t>O41</t>
+  </si>
+  <si>
+    <t>O42</t>
+  </si>
+  <si>
+    <t>O43</t>
+  </si>
+  <si>
+    <t>O44</t>
+  </si>
+  <si>
+    <t>O45</t>
+  </si>
+  <si>
+    <t>O46</t>
+  </si>
+  <si>
+    <t>O47</t>
+  </si>
+  <si>
+    <t>O48</t>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>M3*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F5*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O4*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2157,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2172,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -2186,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -2200,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -2214,10 +2457,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2228,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -2242,10 +2485,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -2256,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2270,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -2284,10 +2527,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -2298,10 +2541,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>484</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -2312,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -2324,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -2336,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -2350,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -2362,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -2374,10 +2617,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>485</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2388,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -2400,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -2412,10 +2655,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>486</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2427,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -2440,7 +2683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -2452,10 +2695,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2466,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -2478,9 +2721,9 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="9">
         <v>3</v>
       </c>
@@ -2490,10 +2733,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>488</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -2504,7 +2747,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -2516,7 +2759,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
@@ -2528,10 +2771,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -2542,7 +2785,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -2554,9 +2797,9 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="6">
         <v>3</v>
       </c>
@@ -2566,10 +2809,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>174</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2580,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -2592,9 +2835,9 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="9">
         <v>3</v>
       </c>
@@ -2604,10 +2847,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>491</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -2618,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -2630,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -2642,10 +2885,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>492</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2656,7 +2899,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -2668,7 +2911,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -2680,10 +2923,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -2694,7 +2937,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -2706,9 +2949,9 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="9">
         <v>3</v>
       </c>
@@ -2718,10 +2961,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>2</v>
+        <v>186</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -2732,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -2744,9 +2987,9 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
@@ -2756,10 +2999,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -2770,7 +3013,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -2782,7 +3025,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -2794,10 +3037,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -2808,7 +3051,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -2820,9 +3063,9 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
@@ -2832,10 +3075,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>497</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -2846,7 +3089,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -2858,7 +3101,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -2870,10 +3113,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>498</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -2884,7 +3127,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -2896,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -2908,10 +3151,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>3</v>
+        <v>499</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -2922,7 +3165,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -2934,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -2946,10 +3189,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -2960,7 +3203,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -2972,7 +3215,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -2984,10 +3227,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -2998,7 +3241,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -3010,7 +3253,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -3022,10 +3265,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>210</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -3036,7 +3279,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -3048,9 +3291,9 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="9">
         <v>3</v>
       </c>
@@ -3060,10 +3303,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>112</v>
+        <v>503</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -3074,7 +3317,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -3086,7 +3329,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -3098,10 +3341,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>4</v>
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -3112,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -3124,9 +3367,9 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="6">
         <v>3</v>
       </c>
@@ -3136,10 +3379,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>219</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -3150,7 +3393,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -3162,9 +3405,9 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="9">
         <v>3</v>
       </c>
@@ -3174,10 +3417,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -3188,7 +3431,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -3200,7 +3443,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -3212,10 +3455,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>507</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -3226,7 +3469,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -3238,7 +3481,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -3250,10 +3493,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>228</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -3264,7 +3507,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -3276,9 +3519,9 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="8"/>
+        <v>230</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="9">
         <v>3</v>
       </c>
@@ -3288,10 +3531,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>231</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -3302,7 +3545,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -3314,9 +3557,9 @@
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="6">
         <v>3</v>
       </c>
@@ -3326,10 +3569,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>132</v>
+        <v>510</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -3340,7 +3583,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -3352,7 +3595,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -3364,10 +3607,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -3378,7 +3621,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -3390,9 +3633,9 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C96" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="C96" s="5"/>
       <c r="D96" s="9">
         <v>3</v>
       </c>
@@ -3402,10 +3645,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>140</v>
+        <v>512</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -3416,7 +3659,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -3428,7 +3671,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
@@ -3440,10 +3683,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>513</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -3454,7 +3697,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -3466,7 +3709,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -3478,10 +3721,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -3492,7 +3735,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -3504,7 +3747,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -3516,10 +3759,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>148</v>
+        <v>515</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -3530,7 +3773,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -3542,7 +3785,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
@@ -3554,10 +3797,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>152</v>
+        <v>516</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -3568,7 +3811,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -3580,7 +3823,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
@@ -3592,10 +3835,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>156</v>
+        <v>255</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -3606,7 +3849,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -3618,9 +3861,9 @@
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C114" s="8"/>
+        <v>257</v>
+      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="9">
         <v>3</v>
       </c>
@@ -3630,10 +3873,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>160</v>
+        <v>518</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -3644,7 +3887,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -3656,7 +3899,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
@@ -3668,10 +3911,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>261</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -3682,7 +3925,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -3694,9 +3937,9 @@
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -3706,10 +3949,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>164</v>
+        <v>264</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -3720,7 +3963,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -3732,9 +3975,9 @@
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C123" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="9">
         <v>3</v>
       </c>
@@ -3744,10 +3987,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>168</v>
+        <v>521</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -3758,7 +4001,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -3770,7 +4013,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
@@ -3782,10 +4025,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>172</v>
+        <v>522</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -3796,7 +4039,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -3808,7 +4051,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
@@ -3820,10 +4063,10 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>176</v>
+        <v>273</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -3834,7 +4077,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -3846,9 +4089,9 @@
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C132" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="9">
         <v>3</v>
       </c>
@@ -3858,10 +4101,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>17</v>
+        <v>276</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="D133" s="6">
         <v>1</v>
@@ -3872,7 +4115,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -3884,9 +4127,9 @@
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C135" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="C135" s="8"/>
       <c r="D135" s="6">
         <v>3</v>
       </c>
@@ -3896,10 +4139,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
@@ -3910,7 +4153,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -3922,7 +4165,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
@@ -3934,10 +4177,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>184</v>
+        <v>282</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -3948,7 +4191,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -3960,9 +4203,9 @@
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C141" s="8"/>
+        <v>284</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="9">
         <v>3</v>
       </c>
@@ -3972,10 +4215,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>188</v>
+        <v>527</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -3986,7 +4229,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -3998,7 +4241,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9">
@@ -4036,7 +4279,7 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4050,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4064,10 +4307,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -4078,10 +4321,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -4092,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -4106,10 +4349,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -4120,10 +4363,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -4134,10 +4377,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>573</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -4148,10 +4391,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>573</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -4162,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>573</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -4176,10 +4419,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -4190,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -4202,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -4214,10 +4457,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -4228,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -4240,7 +4483,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -4252,10 +4495,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -4266,7 +4509,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -4278,7 +4521,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -4290,10 +4533,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>531</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -4305,7 +4548,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -4318,7 +4561,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -4330,10 +4573,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -4344,7 +4587,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -4356,9 +4599,9 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="9">
         <v>3</v>
       </c>
@@ -4368,10 +4611,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -4382,7 +4625,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -4394,7 +4637,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
@@ -4406,10 +4649,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -4420,7 +4663,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -4432,9 +4675,9 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="6">
         <v>3</v>
       </c>
@@ -4444,10 +4687,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4458,7 +4701,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -4470,9 +4713,9 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="9">
         <v>3</v>
       </c>
@@ -4482,10 +4725,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>536</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4496,7 +4739,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -4508,7 +4751,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -4520,10 +4763,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4534,7 +4777,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -4546,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -4558,10 +4801,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -4572,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -4584,9 +4827,9 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="9">
         <v>3</v>
       </c>
@@ -4596,10 +4839,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -4610,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -4622,9 +4865,9 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
@@ -4634,10 +4877,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>540</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -4648,7 +4891,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -4660,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -4672,10 +4915,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -4686,7 +4929,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -4698,9 +4941,9 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
@@ -4710,10 +4953,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>542</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -4724,7 +4967,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -4736,7 +4979,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -4748,10 +4991,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -4762,7 +5005,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -4774,7 +5017,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -4786,10 +5029,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>3</v>
+        <v>544</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -4800,7 +5043,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -4812,7 +5055,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -4824,10 +5067,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>545</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -4838,7 +5081,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -4850,7 +5093,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -4862,10 +5105,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -4876,7 +5119,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -4888,7 +5131,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -4900,10 +5143,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -4914,7 +5157,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -4926,9 +5169,9 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="9">
         <v>3</v>
       </c>
@@ -4938,10 +5181,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>112</v>
+        <v>548</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -4952,7 +5195,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -4964,7 +5207,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -4976,10 +5219,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4990,7 +5233,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -5002,9 +5245,9 @@
         <v>75</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="6">
         <v>3</v>
       </c>
@@ -5014,10 +5257,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -5028,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -5040,9 +5283,9 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="9">
         <v>3</v>
       </c>
@@ -5052,10 +5295,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>120</v>
+        <v>551</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -5066,7 +5309,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -5078,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -5090,10 +5333,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>552</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -5104,7 +5347,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -5116,7 +5359,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -5128,10 +5371,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -5142,7 +5385,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -5154,9 +5397,9 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="9">
         <v>3</v>
       </c>
@@ -5166,10 +5409,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -5180,7 +5423,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -5192,9 +5435,9 @@
         <v>90</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="6">
         <v>3</v>
       </c>
@@ -5204,10 +5447,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>132</v>
+        <v>555</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -5218,7 +5461,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -5230,7 +5473,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -5242,10 +5485,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -5256,7 +5499,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -5268,9 +5511,9 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="C96" s="5"/>
       <c r="D96" s="9">
         <v>3</v>
       </c>
@@ -5280,10 +5523,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>140</v>
+        <v>557</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -5294,7 +5537,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -5306,7 +5549,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
@@ -5318,10 +5561,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>558</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -5332,7 +5575,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -5344,7 +5587,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -5356,10 +5599,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>15</v>
+        <v>559</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -5370,7 +5613,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -5382,7 +5625,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -5394,10 +5637,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>148</v>
+        <v>560</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -5408,7 +5651,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -5420,7 +5663,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
@@ -5432,10 +5675,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>152</v>
+        <v>561</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -5446,7 +5689,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -5458,7 +5701,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
@@ -5470,10 +5713,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -5484,7 +5727,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -5496,9 +5739,9 @@
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C114" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="9">
         <v>3</v>
       </c>
@@ -5508,10 +5751,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -5522,7 +5765,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -5534,7 +5777,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
@@ -5546,10 +5789,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -5560,7 +5803,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -5572,9 +5815,9 @@
         <v>120</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -5584,10 +5827,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -5598,7 +5841,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -5610,9 +5853,9 @@
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="9">
         <v>3</v>
       </c>
@@ -5622,10 +5865,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>168</v>
+        <v>566</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -5636,7 +5879,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -5648,7 +5891,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
@@ -5660,10 +5903,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -5674,7 +5917,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -5686,7 +5929,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
@@ -5698,10 +5941,10 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -5712,7 +5955,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -5724,9 +5967,9 @@
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="9">
         <v>3</v>
       </c>
@@ -5736,10 +5979,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="D133" s="6">
         <v>1</v>
@@ -5750,7 +5993,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -5762,9 +6005,9 @@
         <v>135</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C135" s="8"/>
       <c r="D135" s="6">
         <v>3</v>
       </c>
@@ -5774,10 +6017,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
@@ -5788,7 +6031,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -5800,7 +6043,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
@@ -5812,10 +6055,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>184</v>
+        <v>139</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -5826,7 +6069,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -5838,9 +6081,9 @@
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C141" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="9">
         <v>3</v>
       </c>
@@ -5850,10 +6093,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>188</v>
+        <v>572</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -5864,7 +6107,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -5876,7 +6119,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9">
@@ -5913,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5928,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5942,10 +6185,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -5956,10 +6199,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
@@ -5970,10 +6213,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -5984,10 +6227,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -5998,10 +6241,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -6012,10 +6255,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -6026,10 +6269,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -6040,10 +6283,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -6054,10 +6297,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>575</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -6068,7 +6311,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -6080,7 +6323,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -6092,10 +6335,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6106,7 +6349,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -6118,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -6130,10 +6373,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -6144,7 +6387,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -6156,7 +6399,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -6168,10 +6411,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>442</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -6183,7 +6426,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -6196,7 +6439,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -6208,10 +6451,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>443</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -6222,7 +6465,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -6234,7 +6477,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -6246,10 +6489,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>315</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6260,7 +6503,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -6272,9 +6515,9 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="9">
         <v>3</v>
       </c>
@@ -6284,10 +6527,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -6298,7 +6541,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -6310,9 +6553,9 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="6">
         <v>3</v>
       </c>
@@ -6322,10 +6565,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>446</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -6336,7 +6579,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -6348,7 +6591,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9">
@@ -6360,10 +6603,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6374,7 +6617,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -6386,7 +6629,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -6398,10 +6641,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>327</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -6412,7 +6655,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -6424,9 +6667,9 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="8"/>
+        <v>329</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="9">
         <v>3</v>
       </c>
@@ -6436,10 +6679,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -6450,7 +6693,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -6462,7 +6705,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9">
@@ -6474,10 +6717,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -6488,7 +6731,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -6500,9 +6743,9 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
@@ -6512,10 +6755,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>451</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -6526,7 +6769,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -6538,7 +6781,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -6550,10 +6793,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>339</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -6564,7 +6807,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -6576,9 +6819,9 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C51" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
@@ -6588,10 +6831,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>453</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -6602,7 +6845,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -6614,7 +6857,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -6626,10 +6869,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>454</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -6640,7 +6883,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -6652,7 +6895,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -6664,10 +6907,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>3</v>
+        <v>348</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -6678,7 +6921,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -6690,9 +6933,9 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>350</v>
+      </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="6">
         <v>3</v>
       </c>
@@ -6702,10 +6945,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>351</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -6716,7 +6959,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -6728,9 +6971,9 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>353</v>
+      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="9">
         <v>3</v>
       </c>
@@ -6740,10 +6983,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -6754,7 +6997,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -6766,7 +7009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -6778,10 +7021,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -6792,7 +7035,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -6804,7 +7047,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9">
@@ -6816,10 +7059,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>112</v>
+        <v>459</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -6830,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -6842,7 +7085,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -6854,10 +7097,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -6868,7 +7111,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -6880,7 +7123,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6">
@@ -6892,10 +7135,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>461</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -6906,7 +7149,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -6918,7 +7161,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9">
@@ -6930,10 +7173,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -6944,7 +7187,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -6956,7 +7199,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -6968,10 +7211,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>463</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -6982,7 +7225,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -6994,7 +7237,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -7006,10 +7249,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>375</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -7020,7 +7263,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -7032,9 +7275,9 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C87" s="8"/>
+        <v>377</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="9">
         <v>3</v>
       </c>
@@ -7044,10 +7287,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
+        <v>378</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -7058,7 +7301,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -7070,9 +7313,9 @@
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>380</v>
+      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="6">
         <v>3</v>
       </c>
@@ -7082,10 +7325,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -7096,7 +7339,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -7108,7 +7351,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -7120,10 +7363,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>136</v>
+        <v>467</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -7134,7 +7377,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -7146,7 +7389,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="9">
@@ -7158,10 +7401,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>140</v>
+        <v>387</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -7172,7 +7415,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -7184,9 +7427,9 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C99" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="C99" s="5"/>
       <c r="D99" s="9">
         <v>3</v>
       </c>
@@ -7196,10 +7439,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>469</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -7210,7 +7453,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -7222,7 +7465,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -7234,10 +7477,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>15</v>
+        <v>393</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -7248,7 +7491,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -7260,9 +7503,9 @@
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C105" s="5"/>
+        <v>395</v>
+      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="6">
         <v>3</v>
       </c>
@@ -7272,10 +7515,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>148</v>
+        <v>471</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -7286,7 +7529,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -7298,7 +7541,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
@@ -7310,10 +7553,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>152</v>
+        <v>399</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -7324,7 +7567,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -7336,9 +7579,9 @@
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C111" s="8"/>
+        <v>401</v>
+      </c>
+      <c r="C111" s="5"/>
       <c r="D111" s="9">
         <v>3</v>
       </c>
@@ -7348,10 +7591,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -7362,7 +7605,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -7374,7 +7617,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="9">
@@ -7386,10 +7629,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>160</v>
+        <v>474</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -7400,7 +7643,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -7412,7 +7655,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
@@ -7424,10 +7667,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>408</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -7438,7 +7681,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -7450,9 +7693,9 @@
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>410</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -7462,10 +7705,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>164</v>
+        <v>411</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -7476,7 +7719,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -7488,9 +7731,9 @@
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C123" s="8"/>
+        <v>413</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="9">
         <v>3</v>
       </c>
@@ -7500,10 +7743,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>168</v>
+        <v>477</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -7514,7 +7757,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -7526,7 +7769,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
@@ -7538,10 +7781,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>172</v>
+        <v>478</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -7552,7 +7795,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -7564,7 +7807,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
@@ -7576,10 +7819,10 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>176</v>
+        <v>479</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -7590,7 +7833,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -7602,7 +7845,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="9">
@@ -7614,10 +7857,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>17</v>
+        <v>480</v>
       </c>
       <c r="D133" s="6">
         <v>1</v>
@@ -7628,7 +7871,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -7640,7 +7883,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6">
@@ -7652,10 +7895,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>180</v>
+        <v>481</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
@@ -7666,7 +7909,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -7678,7 +7921,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
@@ -7690,10 +7933,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>184</v>
+        <v>482</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -7704,7 +7947,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -7716,7 +7959,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="9">
@@ -7728,10 +7971,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>188</v>
+        <v>483</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -7742,7 +7985,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -7754,7 +7997,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="9">

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE85FE-8495-48AA-9826-DB8801BB6792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84D804-E83E-4310-B4B5-0081921F6E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
-    <sheet name="FUN" sheetId="3" r:id="rId1"/>
-    <sheet name="MIDDLE" sheetId="2" r:id="rId2"/>
-    <sheet name="OPEN" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="FUN" sheetId="3" r:id="rId2"/>
+    <sheet name="MIDDLE" sheetId="2" r:id="rId3"/>
+    <sheet name="OPEN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="587">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -1907,6 +1907,118 @@
   </si>
   <si>
     <t>O4*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左から</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム内番号</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのままで大丈夫です</t>
+    <rPh sb="5" eb="8">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語・英語使えます</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>各チーム欄の一番上にさえ入っていれば最低限機能します　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*をいれるとダイバーシティチームとして登録されます</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（あんまり意味ないです)</t>
+    <rPh sb="5" eb="7">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F6*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1914,7 +2026,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1930,13 +2042,67 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -2028,12 +2194,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2064,9 +2239,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2397,11 +2605,1911 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B631B135-50C6-4792-A2AB-6A2F685FB879}">
+  <dimension ref="A1:J144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="H6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="H7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="H8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="7">
+        <v>33</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="7">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="7">
+        <v>39</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>48</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>51</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>62</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>63</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>65</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>66</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <v>68</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="7">
+        <v>69</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <v>71</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="7">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <v>74</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="4">
+        <v>75</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>77</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>78</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>80</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>81</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>83</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>86</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>89</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="4">
+        <v>90</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>92</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <v>95</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="7">
+        <v>96</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <v>98</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="7">
+        <v>99</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <v>101</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="7">
+        <v>102</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <v>104</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="4">
+        <v>105</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
+        <v>107</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="7">
+        <v>108</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
+        <v>110</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="7">
+        <v>111</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
+        <v>113</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="7">
+        <v>114</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
+        <v>116</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="7">
+        <v>117</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
+        <v>119</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="4">
+        <v>120</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <v>122</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="7">
+        <v>123</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>125</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="7">
+        <v>126</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
+        <v>128</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="7">
+        <v>129</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="4">
+        <v>131</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="7">
+        <v>132</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="4">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="4">
+        <v>134</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="4">
+        <v>135</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="4">
+        <v>137</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="7">
+        <v>138</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="4">
+        <v>140</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="7">
+        <v>141</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="4">
+        <v>143</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="7">
+        <v>144</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection sqref="A1:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4274,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
@@ -6152,7 +8260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
@@ -8028,17 +10136,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B631B135-50C6-4792-A2AB-6A2F685FB879}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static.xlsx
+++ b/static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84D804-E83E-4310-B4B5-0081921F6E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -4508,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection sqref="A1:D144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8264,7 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D382952-7A07-45BE-AFEE-59C3E49C1428}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF95009-F8AF-4315-83F2-95B47F771C53}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="514">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -901,6 +901,9 @@
   </si>
   <si>
     <t>ゴトウ　ケイスケ</t>
+  </si>
+  <si>
+    <t>ゴトウ　ケイスケ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1194,9 +1197,6 @@
     <t>スズモト　コウヘイ</t>
   </si>
   <si>
-    <t>マトバ　スズ</t>
-  </si>
-  <si>
     <t>フジサワ　ハルカ</t>
   </si>
   <si>
@@ -1358,6 +1358,344 @@
   </si>
   <si>
     <t>ヌクイ　リョウエイ</t>
+  </si>
+  <si>
+    <t>ポテトいっぱい食べたい</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>YUNA-boo</t>
+  </si>
+  <si>
+    <t>あまゆもみ</t>
+  </si>
+  <si>
+    <t>Gecko</t>
+  </si>
+  <si>
+    <t>トゥトゥルゥ</t>
+  </si>
+  <si>
+    <t>Bungu Badgers</t>
+  </si>
+  <si>
+    <t>音響さくら2</t>
+  </si>
+  <si>
+    <t>ENNクライマーズ</t>
+  </si>
+  <si>
+    <t>ぷちぽわ</t>
+  </si>
+  <si>
+    <t>あほよトリオ</t>
+  </si>
+  <si>
+    <t>チョークは白粉</t>
+  </si>
+  <si>
+    <t>テンションズ</t>
+  </si>
+  <si>
+    <t>チョークマイスター</t>
+  </si>
+  <si>
+    <t>玄ちゃんとゆかいな妹達</t>
+  </si>
+  <si>
+    <t>ブロッコリー軍団</t>
+  </si>
+  <si>
+    <t>未開</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>毎年迷う！</t>
+  </si>
+  <si>
+    <t>THE B3</t>
+  </si>
+  <si>
+    <t>チーム170歳</t>
+  </si>
+  <si>
+    <t>オイ—</t>
+  </si>
+  <si>
+    <t>神怪爆団</t>
+  </si>
+  <si>
+    <t>物件探し</t>
+  </si>
+  <si>
+    <t>Patchworks</t>
+  </si>
+  <si>
+    <t>たおるヘッダーズ</t>
+  </si>
+  <si>
+    <t>D's</t>
+  </si>
+  <si>
+    <t>Tokyo tourist gang</t>
+  </si>
+  <si>
+    <t>ヤスモト　キオ</t>
+  </si>
+  <si>
+    <t>モチヅキ　タクマ</t>
+  </si>
+  <si>
+    <t>イグチ　コハル</t>
+  </si>
+  <si>
+    <t>チョン　ソンラン</t>
+  </si>
+  <si>
+    <t>リョウ (マイク)　モリタ</t>
+  </si>
+  <si>
+    <t>イマユキ　ナルミ</t>
+  </si>
+  <si>
+    <t>タカクサギ　ニコ</t>
+  </si>
+  <si>
+    <t>キクチ　ユウタ</t>
+  </si>
+  <si>
+    <t>オオムカイ　ユウナ</t>
+  </si>
+  <si>
+    <t>ハシモト　ユナ</t>
+  </si>
+  <si>
+    <t>オガワ　モミジ</t>
+  </si>
+  <si>
+    <t>カイハタ　テンセイ</t>
+  </si>
+  <si>
+    <t>ミヤイリ　タケル</t>
+  </si>
+  <si>
+    <t>スエツグ　シン</t>
+  </si>
+  <si>
+    <t>タカハシ　カノン</t>
+  </si>
+  <si>
+    <t>ジャン　ジャオイ</t>
+  </si>
+  <si>
+    <t>チン　ゲンジョ</t>
+  </si>
+  <si>
+    <t>カン　テキ</t>
+  </si>
+  <si>
+    <t>サスヴィック　ユウキ　フジワラ</t>
+  </si>
+  <si>
+    <t>ジェシー　コマラ</t>
+  </si>
+  <si>
+    <t>オオイ　ヒビキ</t>
+  </si>
+  <si>
+    <t>タキフカ　サクラ</t>
+  </si>
+  <si>
+    <t>カワシマ　ロロ</t>
+  </si>
+  <si>
+    <t>コイケ　エイイチロウ</t>
+  </si>
+  <si>
+    <t>セキネ　ノア</t>
+  </si>
+  <si>
+    <t>サイトウ　ナオ</t>
+  </si>
+  <si>
+    <t>サイトウ　タクミ</t>
+  </si>
+  <si>
+    <t>ワダ　マリン</t>
+  </si>
+  <si>
+    <t>カワキタ　ノエミ</t>
+  </si>
+  <si>
+    <t>カトウ　アユミ</t>
+  </si>
+  <si>
+    <t>イトウ　ホナミ</t>
+  </si>
+  <si>
+    <t>モミヤマ　ヨシナリ</t>
+  </si>
+  <si>
+    <t>ユハラ　ラナ</t>
+  </si>
+  <si>
+    <t>コマツザキ　カンタ</t>
+  </si>
+  <si>
+    <t>ハタザキ　イト</t>
+  </si>
+  <si>
+    <t>アイハマ　ユウスケ</t>
+  </si>
+  <si>
+    <t>フチガミ　タカヒロ</t>
+  </si>
+  <si>
+    <t>セヌマ　トモコ</t>
+  </si>
+  <si>
+    <t>シイナ　マサキ</t>
+  </si>
+  <si>
+    <t>カワグチ　マサル</t>
+  </si>
+  <si>
+    <t>ニシムラ　ジュンコ</t>
+  </si>
+  <si>
+    <t>ソノダ　ユイカ</t>
+  </si>
+  <si>
+    <t>ツチヤ　モモカ</t>
+  </si>
+  <si>
+    <t>タカヤ　ゲン</t>
+  </si>
+  <si>
+    <t>ウメダ　リョウト</t>
+  </si>
+  <si>
+    <t>カネダ　ミキヤ</t>
+  </si>
+  <si>
+    <t>タガヤ　ユキノ</t>
+  </si>
+  <si>
+    <t>コウダ　ミノン</t>
+  </si>
+  <si>
+    <t>ナカネ　イサキ</t>
+  </si>
+  <si>
+    <t>ノグチ　カンタ</t>
+  </si>
+  <si>
+    <t>ナカサカ　タマキ</t>
+  </si>
+  <si>
+    <t>トミタ　ソウシン</t>
+  </si>
+  <si>
+    <t>ムヤ　モモカ</t>
+  </si>
+  <si>
+    <t>イトウ　カツヒロ</t>
+  </si>
+  <si>
+    <t>デクチ　ミオ</t>
+  </si>
+  <si>
+    <t>オカダ　ヒロフミ</t>
+  </si>
+  <si>
+    <t>イマイ　ヒロキ</t>
+  </si>
+  <si>
+    <t>ミズタニ　オサム</t>
+  </si>
+  <si>
+    <t>エジリ　ユミ</t>
+  </si>
+  <si>
+    <t>シノハラ　カツトモ</t>
+  </si>
+  <si>
+    <t>マツオ　タカヒサ</t>
+  </si>
+  <si>
+    <t>ニシカワ　トモコ</t>
+  </si>
+  <si>
+    <t>シン　セイコウ</t>
+  </si>
+  <si>
+    <t>カクエーキ</t>
+  </si>
+  <si>
+    <t>ボク　イセイ</t>
+  </si>
+  <si>
+    <t>シェン　ユイン</t>
+  </si>
+  <si>
+    <t>チン　ユウゼン</t>
+  </si>
+  <si>
+    <t>オウ　ショウウ</t>
+  </si>
+  <si>
+    <t>クボタ　ヒデヤ</t>
+  </si>
+  <si>
+    <t>ナカジマ　フミカ</t>
+  </si>
+  <si>
+    <t>ヤマザキ　リュウタ</t>
+  </si>
+  <si>
+    <t>ナカムラ　カナエ</t>
+  </si>
+  <si>
+    <t>ヨシダ　カシュン</t>
+  </si>
+  <si>
+    <t>ナカガワ　タカシ</t>
+  </si>
+  <si>
+    <t>スエヨシ　ノリコ</t>
+  </si>
+  <si>
+    <t>クサノ　エミコ</t>
+  </si>
+  <si>
+    <t>アリエダ　サキ</t>
+  </si>
+  <si>
+    <t>フクダ　カイシュウ</t>
+  </si>
+  <si>
+    <t>ツノダ　カズアキ</t>
+  </si>
+  <si>
+    <t>シオイリ　ユウ</t>
+  </si>
+  <si>
+    <t>アーネスト　ハン</t>
+  </si>
+  <si>
+    <t>ヘ　ポンダン</t>
+  </si>
+  <si>
+    <t>ケネス　ブラック　ジュニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マトバ　スズ?</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1606,7 +1944,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,6 +2028,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4182,364 +4526,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="51.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>402</v>
+      </c>
       <c r="D1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G2" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G3" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>403</v>
+      </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G4" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G5" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>435</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G6" s="28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>404</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G7" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G8" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>438</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G9" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>405</v>
+      </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G10" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G11" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G12" s="28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>406</v>
+      </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G13" s="28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G14" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>444</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G15" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>407</v>
+      </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G16" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G17" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>447</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G18" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>408</v>
+      </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
+      <c r="G19" s="28" t="s">
+        <v>419</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
+      <c r="G20" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>20</v>
+        <v>512</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G21" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>450</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>409</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G22" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G23" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G24" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>410</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G25" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>25</v>
+      <c r="B26" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G26" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>27</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>26</v>
+      <c r="B27" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G27" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G28" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>457</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
         <v>2</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -4547,21 +4996,23 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>458</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>459</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>412</v>
+      </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
@@ -4571,393 +5022,463 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>460</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A33" s="7">
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>413</v>
+      </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>463</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A36" s="7">
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>414</v>
+      </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G38" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G39" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>468</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>415</v>
+      </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G40" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G41" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>41</v>
+        <v>470</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G42" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>416</v>
+      </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G43" s="28" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>472</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G44" s="28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G45" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>417</v>
+      </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G46" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>46</v>
+        <v>475</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G47" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G48" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>477</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G49" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>478</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G50" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G51" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="B52" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>419</v>
+      </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="G52" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>481</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G53" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A54" s="7">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>53</v>
+        <v>482</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="D55" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A56" s="4">
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>55</v>
+        <v>484</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A57" s="7">
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>56</v>
+        <v>485</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>486</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>421</v>
+      </c>
       <c r="D58" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A59" s="4">
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>58</v>
+        <v>487</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A60" s="4">
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>422</v>
+      </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A62" s="4">
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>61</v>
+        <v>490</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A63" s="7">
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>62</v>
+        <v>491</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>423</v>
+      </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
@@ -4967,7 +5488,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>64</v>
+        <v>493</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -4979,21 +5500,23 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>495</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>424</v>
+      </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
@@ -5003,7 +5526,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -5015,21 +5538,23 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>68</v>
+        <v>497</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>425</v>
+      </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
@@ -5039,7 +5564,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>70</v>
+        <v>499</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -5051,21 +5576,23 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>71</v>
+        <v>500</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>426</v>
+      </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
@@ -5075,7 +5602,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>73</v>
+        <v>502</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -5087,21 +5614,23 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>74</v>
+        <v>503</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>427</v>
+      </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
@@ -5111,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>76</v>
+        <v>504</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -5123,21 +5652,23 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>428</v>
+      </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
@@ -5147,7 +5678,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -5159,21 +5690,23 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>429</v>
+      </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
@@ -5183,7 +5716,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -5195,7 +5728,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>83</v>
+        <v>511</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -5206,9 +5739,7 @@
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3">
         <v>1</v>
@@ -5218,9 +5749,7 @@
       <c r="A86" s="4">
         <v>86</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
         <v>2</v>
@@ -5230,9 +5759,7 @@
       <c r="A87" s="7">
         <v>87</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="5"/>
       <c r="D87" s="9">
         <v>3</v>
@@ -5242,9 +5769,7 @@
       <c r="A88" s="4">
         <v>88</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="6">
         <v>1</v>
@@ -5254,9 +5779,7 @@
       <c r="A89" s="4">
         <v>89</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
         <v>2</v>
@@ -5266,9 +5789,7 @@
       <c r="A90" s="4">
         <v>90</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6">
         <v>3</v>
@@ -5278,9 +5799,7 @@
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3">
         <v>1</v>
@@ -5290,9 +5809,7 @@
       <c r="A92" s="4">
         <v>92</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
         <v>2</v>
@@ -5302,9 +5819,7 @@
       <c r="A93" s="7">
         <v>93</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
         <v>3</v>
@@ -5314,9 +5829,7 @@
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="B94" s="2"/>
       <c r="C94" s="5"/>
       <c r="D94" s="3">
         <v>1</v>
@@ -5326,9 +5839,7 @@
       <c r="A95" s="4">
         <v>95</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
         <v>2</v>
@@ -5338,9 +5849,7 @@
       <c r="A96" s="7">
         <v>96</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="5"/>
       <c r="D96" s="9">
         <v>3</v>
@@ -5350,9 +5859,7 @@
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3">
         <v>1</v>
@@ -5362,9 +5869,7 @@
       <c r="A98" s="4">
         <v>98</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
         <v>2</v>
@@ -5374,9 +5879,7 @@
       <c r="A99" s="7">
         <v>99</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
         <v>3</v>
@@ -5386,9 +5889,7 @@
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3">
         <v>1</v>
@@ -5398,9 +5899,7 @@
       <c r="A101" s="4">
         <v>101</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
         <v>2</v>
@@ -5410,9 +5909,7 @@
       <c r="A102" s="7">
         <v>102</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
         <v>3</v>
@@ -5422,9 +5919,7 @@
       <c r="A103" s="4">
         <v>103</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6">
         <v>1</v>
@@ -5434,9 +5929,7 @@
       <c r="A104" s="4">
         <v>104</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
         <v>2</v>
@@ -5446,9 +5939,7 @@
       <c r="A105" s="4">
         <v>105</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B105" s="8"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
         <v>3</v>
@@ -5458,9 +5949,7 @@
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3">
         <v>1</v>
@@ -5470,9 +5959,7 @@
       <c r="A107" s="4">
         <v>107</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
         <v>2</v>
@@ -5482,9 +5969,7 @@
       <c r="A108" s="7">
         <v>108</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
         <v>3</v>
@@ -5494,9 +5979,7 @@
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3">
         <v>1</v>
@@ -5506,9 +5989,7 @@
       <c r="A110" s="4">
         <v>110</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
         <v>2</v>
@@ -5518,9 +5999,7 @@
       <c r="A111" s="7">
         <v>111</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
         <v>3</v>
@@ -5530,9 +6009,7 @@
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="5"/>
       <c r="D112" s="3">
         <v>1</v>
@@ -5542,9 +6019,7 @@
       <c r="A113" s="4">
         <v>113</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
         <v>2</v>
@@ -5554,9 +6029,7 @@
       <c r="A114" s="7">
         <v>114</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="B114" s="8"/>
       <c r="C114" s="5"/>
       <c r="D114" s="9">
         <v>3</v>
@@ -5566,9 +6039,7 @@
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3">
         <v>1</v>
@@ -5578,9 +6049,7 @@
       <c r="A116" s="4">
         <v>116</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
         <v>2</v>
@@ -5590,9 +6059,7 @@
       <c r="A117" s="7">
         <v>117</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
         <v>3</v>
@@ -5602,9 +6069,7 @@
       <c r="A118" s="4">
         <v>118</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="6">
         <v>1</v>
@@ -5614,9 +6079,7 @@
       <c r="A119" s="4">
         <v>119</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
         <v>2</v>
@@ -5626,9 +6089,7 @@
       <c r="A120" s="4">
         <v>120</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="6">
         <v>3</v>
@@ -5638,9 +6099,7 @@
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="5"/>
       <c r="D121" s="3">
         <v>1</v>
@@ -5650,9 +6109,7 @@
       <c r="A122" s="4">
         <v>122</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
         <v>2</v>
@@ -5662,9 +6119,7 @@
       <c r="A123" s="7">
         <v>123</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="B123" s="8"/>
       <c r="C123" s="5"/>
       <c r="D123" s="9">
         <v>3</v>
@@ -5674,9 +6129,7 @@
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3">
         <v>1</v>
@@ -5686,9 +6139,7 @@
       <c r="A125" s="4">
         <v>125</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
         <v>2</v>
@@ -5698,9 +6149,7 @@
       <c r="A126" s="7">
         <v>126</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
         <v>3</v>
@@ -5710,9 +6159,7 @@
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3">
         <v>1</v>
@@ -5722,9 +6169,7 @@
       <c r="A128" s="4">
         <v>128</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
         <v>2</v>
@@ -5734,9 +6179,7 @@
       <c r="A129" s="7">
         <v>129</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
         <v>3</v>
@@ -5746,9 +6189,7 @@
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="5"/>
       <c r="D130" s="3">
         <v>1</v>
@@ -5758,9 +6199,7 @@
       <c r="A131" s="4">
         <v>131</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
         <v>2</v>
@@ -5770,9 +6209,7 @@
       <c r="A132" s="7">
         <v>132</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="B132" s="8"/>
       <c r="C132" s="5"/>
       <c r="D132" s="9">
         <v>3</v>
@@ -5782,9 +6219,7 @@
       <c r="A133" s="4">
         <v>133</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="6">
         <v>1</v>
@@ -5794,9 +6229,7 @@
       <c r="A134" s="4">
         <v>134</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
         <v>2</v>
@@ -5806,9 +6239,7 @@
       <c r="A135" s="4">
         <v>135</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="6">
         <v>3</v>
@@ -5818,9 +6249,7 @@
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3">
         <v>1</v>
@@ -5830,9 +6259,7 @@
       <c r="A137" s="4">
         <v>137</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
         <v>2</v>
@@ -5842,9 +6269,7 @@
       <c r="A138" s="7">
         <v>138</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
         <v>3</v>
@@ -5854,9 +6279,7 @@
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="5"/>
       <c r="D139" s="3">
         <v>1</v>
@@ -5866,9 +6289,7 @@
       <c r="A140" s="4">
         <v>140</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
         <v>2</v>
@@ -5878,9 +6299,7 @@
       <c r="A141" s="7">
         <v>141</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="B141" s="8"/>
       <c r="C141" s="5"/>
       <c r="D141" s="9">
         <v>3</v>
@@ -5890,9 +6309,7 @@
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3">
         <v>1</v>
@@ -5902,9 +6319,7 @@
       <c r="A143" s="4">
         <v>143</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
         <v>2</v>
@@ -5914,9 +6329,7 @@
       <c r="A144" s="7">
         <v>144</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9">
         <v>3</v>
@@ -5952,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6114,7 +6527,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>208</v>
@@ -6131,7 +6544,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -6146,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -6161,7 +6574,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>209</v>
@@ -6178,7 +6591,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -6193,7 +6606,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -6208,7 +6621,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>210</v>
@@ -6225,7 +6638,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -6240,7 +6653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -6255,7 +6668,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>211</v>
@@ -6273,7 +6686,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -6289,7 +6702,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -6304,7 +6717,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>212</v>
@@ -6321,7 +6734,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -6336,7 +6749,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9">
@@ -6351,7 +6764,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>213</v>
@@ -6368,7 +6781,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -6383,7 +6796,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
@@ -6398,7 +6811,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>214</v>
@@ -6415,7 +6828,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -6430,7 +6843,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
@@ -6445,7 +6858,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>215</v>
@@ -6462,7 +6875,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -6477,7 +6890,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9">
@@ -6492,7 +6905,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>216</v>
@@ -6509,7 +6922,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -6524,7 +6937,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -6539,7 +6952,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>217</v>
@@ -6556,7 +6969,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -6571,7 +6984,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -6583,7 +6996,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>218</v>
@@ -6597,7 +7010,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -6609,7 +7022,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
@@ -6621,7 +7034,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>219</v>
@@ -6635,7 +7048,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -6647,7 +7060,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6">
@@ -6659,7 +7072,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>220</v>
@@ -6673,7 +7086,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -6685,7 +7098,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -6697,7 +7110,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>221</v>
@@ -6711,7 +7124,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -6723,7 +7136,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
@@ -6735,7 +7148,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>222</v>
@@ -6749,7 +7162,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -6761,7 +7174,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -6773,7 +7186,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>223</v>
@@ -6787,7 +7200,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -6799,7 +7212,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -6811,7 +7224,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>224</v>
@@ -6825,7 +7238,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -6837,7 +7250,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -6849,7 +7262,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>225</v>
@@ -6863,7 +7276,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -6875,7 +7288,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -6887,7 +7300,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>226</v>
@@ -6901,7 +7314,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -6913,7 +7326,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -6925,7 +7338,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>227</v>
@@ -6939,7 +7352,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -6951,7 +7364,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9">
@@ -6963,7 +7376,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>228</v>
@@ -6977,7 +7390,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -6989,7 +7402,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -7001,7 +7414,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>229</v>
@@ -7015,7 +7428,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -7027,7 +7440,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6">
@@ -7039,7 +7452,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>230</v>
@@ -7053,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -7065,7 +7478,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9">
@@ -7077,7 +7490,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>231</v>
@@ -7091,7 +7504,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -7103,7 +7516,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -7115,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>232</v>
@@ -7129,7 +7542,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -7141,7 +7554,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -7153,7 +7566,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>233</v>
@@ -7167,7 +7580,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -7179,7 +7592,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="9">
@@ -7191,7 +7604,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>234</v>
@@ -7205,7 +7618,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -7217,7 +7630,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="6">
@@ -7229,7 +7642,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>235</v>
@@ -7243,7 +7656,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -7255,7 +7668,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
@@ -7267,7 +7680,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>236</v>
@@ -7281,7 +7694,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -7293,7 +7706,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="9">
@@ -7305,7 +7718,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>237</v>
@@ -7319,7 +7732,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -7331,7 +7744,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
@@ -7343,7 +7756,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>238</v>
@@ -7357,7 +7770,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -7369,7 +7782,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
@@ -7381,7 +7794,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>239</v>
@@ -7395,7 +7808,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -7406,8 +7819,8 @@
       <c r="A105" s="4">
         <v>105</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>347</v>
+      <c r="B105" s="29" t="s">
+        <v>513</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -7978,8 +8391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>

--- a/static.xlsx
+++ b/static.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF95009-F8AF-4315-83F2-95B47F771C53}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1944,7 +1944,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2009,9 +2009,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,6 +2302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4526,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4545,7 @@
       <c r="B1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>402</v>
       </c>
       <c r="D1" s="3">
@@ -4562,7 +4563,7 @@
       <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4577,7 +4578,7 @@
       <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4588,13 +4589,13 @@
       <c r="B4" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>403</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4609,7 +4610,7 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4624,7 +4625,7 @@
       <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4635,13 +4636,13 @@
       <c r="B7" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>404</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4671,7 +4672,7 @@
       <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4682,13 +4683,13 @@
       <c r="B10" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>405</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4703,7 +4704,7 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4718,7 +4719,7 @@
       <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4729,13 +4730,13 @@
       <c r="B13" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>406</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4750,7 +4751,7 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4765,7 +4766,7 @@
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4776,13 +4777,13 @@
       <c r="B16" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>407</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4797,7 +4798,7 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4812,7 +4813,7 @@
       <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4823,13 +4824,13 @@
       <c r="B19" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>408</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>419</v>
       </c>
       <c r="H19" s="5"/>
@@ -4845,7 +4846,7 @@
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>420</v>
       </c>
       <c r="H20" s="8"/>
@@ -4861,7 +4862,7 @@
       <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4872,13 +4873,13 @@
       <c r="B22" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>409</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4893,7 +4894,7 @@
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4908,7 +4909,7 @@
       <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4919,13 +4920,13 @@
       <c r="B25" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>410</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4940,7 +4941,7 @@
       <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4955,7 +4956,7 @@
       <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4966,13 +4967,13 @@
       <c r="B28" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>411</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4987,7 +4988,7 @@
       <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5010,7 +5011,7 @@
       <c r="B31" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>412</v>
       </c>
       <c r="D31" s="3">
@@ -5048,7 +5049,7 @@
       <c r="B34" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>413</v>
       </c>
       <c r="D34" s="3">
@@ -5086,7 +5087,7 @@
       <c r="B37" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>414</v>
       </c>
       <c r="D37" s="3">
@@ -5104,7 +5105,7 @@
       <c r="D38" s="6">
         <v>2</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="27" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5119,7 +5120,7 @@
       <c r="D39" s="9">
         <v>3</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5130,13 +5131,13 @@
       <c r="B40" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>415</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="27" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5151,7 +5152,7 @@
       <c r="D41" s="6">
         <v>2</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="27" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="27" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5177,13 +5178,13 @@
       <c r="B43" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="27" t="s">
         <v>416</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="27" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5198,7 +5199,7 @@
       <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="27" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5213,7 +5214,7 @@
       <c r="D45" s="6">
         <v>3</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="27" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5224,13 +5225,13 @@
       <c r="B46" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>417</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="27" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5245,7 +5246,7 @@
       <c r="D47" s="6">
         <v>2</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="27" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5260,7 +5261,7 @@
       <c r="D48" s="9">
         <v>3</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="27" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5271,13 +5272,13 @@
       <c r="B49" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>418</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="27" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5292,7 +5293,7 @@
       <c r="D50" s="6">
         <v>2</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="27" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5307,7 +5308,7 @@
       <c r="D51" s="9">
         <v>3</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="27" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5318,13 +5319,13 @@
       <c r="B52" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>419</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="27" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5339,7 +5340,7 @@
       <c r="D53" s="6">
         <v>2</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="27" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5362,7 +5363,7 @@
       <c r="B55" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>420</v>
       </c>
       <c r="D55" s="3">
@@ -5400,7 +5401,7 @@
       <c r="B58" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>421</v>
       </c>
       <c r="D58" s="6">
@@ -5438,7 +5439,7 @@
       <c r="B61" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="27" t="s">
         <v>422</v>
       </c>
       <c r="D61" s="3">
@@ -5476,7 +5477,7 @@
       <c r="B64" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="27" t="s">
         <v>423</v>
       </c>
       <c r="D64" s="3">
@@ -5514,7 +5515,7 @@
       <c r="B67" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="27" t="s">
         <v>424</v>
       </c>
       <c r="D67" s="3">
@@ -5552,7 +5553,7 @@
       <c r="B70" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>425</v>
       </c>
       <c r="D70" s="3">
@@ -5590,7 +5591,7 @@
       <c r="B73" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="27" t="s">
         <v>426</v>
       </c>
       <c r="D73" s="6">
@@ -5628,7 +5629,7 @@
       <c r="B76" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="27" t="s">
         <v>427</v>
       </c>
       <c r="D76" s="3">
@@ -5666,7 +5667,7 @@
       <c r="B79" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>428</v>
       </c>
       <c r="D79" s="3">
@@ -5704,7 +5705,7 @@
       <c r="B82" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="27" t="s">
         <v>429</v>
       </c>
       <c r="D82" s="3">
@@ -6365,7 +6366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
@@ -6416,7 +6417,7 @@
       <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6433,7 +6434,7 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6450,7 +6451,7 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6467,7 +6468,7 @@
       <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6478,13 +6479,13 @@
       <c r="B7" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6501,7 +6502,7 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6518,7 +6519,7 @@
       <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6529,13 +6530,13 @@
       <c r="B10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6550,7 +6551,7 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6565,7 +6566,7 @@
       <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6576,13 +6577,13 @@
       <c r="B13" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6597,7 +6598,7 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6612,7 +6613,7 @@
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6623,13 +6624,13 @@
       <c r="B16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6644,7 +6645,7 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6659,7 +6660,7 @@
       <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="20" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6670,13 +6671,13 @@
       <c r="B19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>211</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="20" t="s">
         <v>223</v>
       </c>
       <c r="H19" s="5"/>
@@ -6692,7 +6693,7 @@
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="20" t="s">
         <v>224</v>
       </c>
       <c r="H20" s="8"/>
@@ -6708,7 +6709,7 @@
       <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6719,13 +6720,13 @@
       <c r="B22" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>212</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="20" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6740,7 +6741,7 @@
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="20" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6755,7 +6756,7 @@
       <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="20" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6766,13 +6767,13 @@
       <c r="B25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>213</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="20" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6787,7 +6788,7 @@
       <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6802,7 +6803,7 @@
       <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6813,13 +6814,13 @@
       <c r="B28" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6860,7 +6861,7 @@
       <c r="B31" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="3">
@@ -6907,7 +6908,7 @@
       <c r="B34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>216</v>
       </c>
       <c r="D34" s="3">
@@ -6954,7 +6955,7 @@
       <c r="B37" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="3">
@@ -6998,7 +6999,7 @@
       <c r="B40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>218</v>
       </c>
       <c r="D40" s="3">
@@ -7036,7 +7037,7 @@
       <c r="B43" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D43" s="6">
@@ -7074,7 +7075,7 @@
       <c r="B46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>220</v>
       </c>
       <c r="D46" s="3">
@@ -7112,7 +7113,7 @@
       <c r="B49" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="3">
@@ -7150,7 +7151,7 @@
       <c r="B52" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>222</v>
       </c>
       <c r="D52" s="3">
@@ -7188,7 +7189,7 @@
       <c r="B55" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="20" t="s">
         <v>223</v>
       </c>
       <c r="D55" s="3">
@@ -7226,7 +7227,7 @@
       <c r="B58" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D58" s="6">
@@ -7264,7 +7265,7 @@
       <c r="B61" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D61" s="3">
@@ -7302,7 +7303,7 @@
       <c r="B64" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="3">
@@ -7340,7 +7341,7 @@
       <c r="B67" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D67" s="3">
@@ -7378,7 +7379,7 @@
       <c r="B70" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D70" s="3">
@@ -7416,7 +7417,7 @@
       <c r="B73" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D73" s="6">
@@ -7454,7 +7455,7 @@
       <c r="B76" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D76" s="3">
@@ -7492,7 +7493,7 @@
       <c r="B79" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D79" s="3">
@@ -7530,7 +7531,7 @@
       <c r="B82" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="3">
@@ -7819,7 +7820,7 @@
       <c r="A105" s="4">
         <v>105</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="28" t="s">
         <v>513</v>
       </c>
       <c r="C105" s="5"/>
@@ -8408,7 +8409,7 @@
       <c r="B1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>358</v>
       </c>
       <c r="D1" s="3">
@@ -8446,13 +8447,13 @@
       <c r="B4" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>359</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8467,7 +8468,7 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8482,7 +8483,7 @@
       <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8493,13 +8494,13 @@
       <c r="B7" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>360</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8514,7 +8515,7 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8529,7 +8530,7 @@
       <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8540,13 +8541,13 @@
       <c r="B10" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>361</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8561,7 +8562,7 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8576,7 +8577,7 @@
       <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8587,13 +8588,13 @@
       <c r="B13" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>362</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8608,7 +8609,7 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8631,7 +8632,7 @@
       <c r="B16" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>363</v>
       </c>
       <c r="D16" s="3">
@@ -8669,7 +8670,7 @@
       <c r="B19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>364</v>
       </c>
       <c r="D19" s="3">
@@ -8709,7 +8710,7 @@
       <c r="B22" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>365</v>
       </c>
       <c r="D22" s="3">
@@ -8747,7 +8748,7 @@
       <c r="B25" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>366</v>
       </c>
       <c r="D25" s="3">
@@ -8785,7 +8786,7 @@
       <c r="B28" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>367</v>
       </c>
       <c r="D28" s="6">
@@ -8823,7 +8824,7 @@
       <c r="B31" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>368</v>
       </c>
       <c r="D31" s="3">

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF95009-F8AF-4315-83F2-95B47F771C53}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E4198B-193E-425C-B03D-A4F307D9D1DB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="514">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -4525,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5740,8 +5740,12 @@
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="5"/>
+      <c r="B85" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D85" s="3">
         <v>1</v>
       </c>
@@ -5750,8 +5754,12 @@
       <c r="A86" s="4">
         <v>86</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D86" s="6">
         <v>2</v>
       </c>
@@ -5760,8 +5768,12 @@
       <c r="A87" s="7">
         <v>87</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="5"/>
+      <c r="B87" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D87" s="9">
         <v>3</v>
       </c>
@@ -5770,8 +5782,12 @@
       <c r="A88" s="4">
         <v>88</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D88" s="6">
         <v>1</v>
       </c>
@@ -5780,8 +5796,12 @@
       <c r="A89" s="4">
         <v>89</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D89" s="6">
         <v>2</v>
       </c>
@@ -5790,8 +5810,12 @@
       <c r="A90" s="4">
         <v>90</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
@@ -5800,8 +5824,12 @@
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
@@ -5810,8 +5838,12 @@
       <c r="A92" s="4">
         <v>92</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D92" s="6">
         <v>2</v>
       </c>
@@ -5820,8 +5852,12 @@
       <c r="A93" s="7">
         <v>93</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D93" s="9">
         <v>3</v>
       </c>
@@ -5830,8 +5866,12 @@
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D94" s="3">
         <v>1</v>
       </c>
@@ -5840,8 +5880,12 @@
       <c r="A95" s="4">
         <v>95</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D95" s="6">
         <v>2</v>
       </c>
@@ -5850,8 +5894,12 @@
       <c r="A96" s="7">
         <v>96</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D96" s="9">
         <v>3</v>
       </c>
@@ -5860,8 +5908,12 @@
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
@@ -5870,8 +5922,12 @@
       <c r="A98" s="4">
         <v>98</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D98" s="6">
         <v>2</v>
       </c>
@@ -5880,8 +5936,12 @@
       <c r="A99" s="7">
         <v>99</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D99" s="9">
         <v>3</v>
       </c>
@@ -5890,8 +5950,12 @@
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D100" s="3">
         <v>1</v>
       </c>
@@ -5900,8 +5964,12 @@
       <c r="A101" s="4">
         <v>101</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D101" s="6">
         <v>2</v>
       </c>
@@ -5910,8 +5978,12 @@
       <c r="A102" s="7">
         <v>102</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D102" s="9">
         <v>3</v>
       </c>
@@ -5920,8 +5992,12 @@
       <c r="A103" s="4">
         <v>103</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="5"/>
+      <c r="B103" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
@@ -5930,8 +6006,12 @@
       <c r="A104" s="4">
         <v>104</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D104" s="6">
         <v>2</v>
       </c>
@@ -5940,8 +6020,12 @@
       <c r="A105" s="4">
         <v>105</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="5"/>
+      <c r="B105" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D105" s="6">
         <v>3</v>
       </c>
@@ -5950,8 +6034,12 @@
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D106" s="3">
         <v>1</v>
       </c>
@@ -5960,8 +6048,12 @@
       <c r="A107" s="4">
         <v>107</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D107" s="6">
         <v>2</v>
       </c>
@@ -5970,8 +6062,12 @@
       <c r="A108" s="7">
         <v>108</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D108" s="9">
         <v>3</v>
       </c>
@@ -5980,8 +6076,12 @@
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D109" s="3">
         <v>1</v>
       </c>
@@ -5990,8 +6090,12 @@
       <c r="A110" s="4">
         <v>110</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D110" s="6">
         <v>2</v>
       </c>
@@ -6000,8 +6104,12 @@
       <c r="A111" s="7">
         <v>111</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D111" s="9">
         <v>3</v>
       </c>
@@ -6010,8 +6118,12 @@
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="5"/>
+      <c r="B112" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D112" s="3">
         <v>1</v>
       </c>
@@ -6020,8 +6132,12 @@
       <c r="A113" s="4">
         <v>113</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D113" s="6">
         <v>2</v>
       </c>
@@ -6030,8 +6146,12 @@
       <c r="A114" s="7">
         <v>114</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="5"/>
+      <c r="B114" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D114" s="9">
         <v>3</v>
       </c>
@@ -6040,8 +6160,12 @@
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D115" s="3">
         <v>1</v>
       </c>
@@ -6050,8 +6174,12 @@
       <c r="A116" s="4">
         <v>116</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D116" s="6">
         <v>2</v>
       </c>
@@ -6060,8 +6188,12 @@
       <c r="A117" s="7">
         <v>117</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
+      <c r="B117" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D117" s="9">
         <v>3</v>
       </c>
@@ -6070,8 +6202,12 @@
       <c r="A118" s="4">
         <v>118</v>
       </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
@@ -6080,8 +6216,12 @@
       <c r="A119" s="4">
         <v>119</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D119" s="6">
         <v>2</v>
       </c>
@@ -6090,8 +6230,12 @@
       <c r="A120" s="4">
         <v>120</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
+      <c r="B120" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -6100,8 +6244,12 @@
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="5"/>
+      <c r="B121" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D121" s="3">
         <v>1</v>
       </c>
@@ -6110,8 +6258,12 @@
       <c r="A122" s="4">
         <v>122</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D122" s="6">
         <v>2</v>
       </c>
@@ -6120,8 +6272,12 @@
       <c r="A123" s="7">
         <v>123</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="5"/>
+      <c r="B123" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D123" s="9">
         <v>3</v>
       </c>
@@ -6130,8 +6286,12 @@
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D124" s="3">
         <v>1</v>
       </c>
@@ -6140,8 +6300,12 @@
       <c r="A125" s="4">
         <v>125</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D125" s="6">
         <v>2</v>
       </c>
@@ -6150,8 +6314,12 @@
       <c r="A126" s="7">
         <v>126</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
+      <c r="B126" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D126" s="9">
         <v>3</v>
       </c>
@@ -6160,8 +6328,12 @@
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D127" s="3">
         <v>1</v>
       </c>
@@ -6170,8 +6342,12 @@
       <c r="A128" s="4">
         <v>128</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D128" s="6">
         <v>2</v>
       </c>
@@ -6180,8 +6356,12 @@
       <c r="A129" s="7">
         <v>129</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+      <c r="B129" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D129" s="9">
         <v>3</v>
       </c>
@@ -6190,8 +6370,12 @@
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="5"/>
+      <c r="B130" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D130" s="3">
         <v>1</v>
       </c>
@@ -6200,8 +6384,12 @@
       <c r="A131" s="4">
         <v>131</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="B131" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D131" s="6">
         <v>2</v>
       </c>
@@ -6210,8 +6398,12 @@
       <c r="A132" s="7">
         <v>132</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="5"/>
+      <c r="B132" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D132" s="9">
         <v>3</v>
       </c>
@@ -6220,8 +6412,12 @@
       <c r="A133" s="4">
         <v>133</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D133" s="6">
         <v>1</v>
       </c>
@@ -6230,8 +6426,12 @@
       <c r="A134" s="4">
         <v>134</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
+      <c r="B134" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D134" s="6">
         <v>2</v>
       </c>
@@ -6240,8 +6440,12 @@
       <c r="A135" s="4">
         <v>135</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+      <c r="B135" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D135" s="6">
         <v>3</v>
       </c>
@@ -6250,8 +6454,12 @@
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D136" s="3">
         <v>1</v>
       </c>
@@ -6260,8 +6468,12 @@
       <c r="A137" s="4">
         <v>137</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="B137" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D137" s="6">
         <v>2</v>
       </c>
@@ -6270,8 +6482,12 @@
       <c r="A138" s="7">
         <v>138</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="B138" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D138" s="9">
         <v>3</v>
       </c>
@@ -6280,8 +6496,12 @@
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="5"/>
+      <c r="B139" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D139" s="3">
         <v>1</v>
       </c>
@@ -6290,8 +6510,12 @@
       <c r="A140" s="4">
         <v>140</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="B140" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D140" s="6">
         <v>2</v>
       </c>
@@ -6300,8 +6524,12 @@
       <c r="A141" s="7">
         <v>141</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="5"/>
+      <c r="B141" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D141" s="9">
         <v>3</v>
       </c>
@@ -6310,8 +6538,12 @@
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
@@ -6320,8 +6552,12 @@
       <c r="A143" s="4">
         <v>143</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="B143" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D143" s="6">
         <v>2</v>
       </c>
@@ -6330,8 +6566,12 @@
       <c r="A144" s="7">
         <v>144</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+      <c r="B144" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D144" s="9">
         <v>3</v>
       </c>
@@ -6340,21 +6580,417 @@
       <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A146" s="4"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A147" s="7"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="B147" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B148" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B149" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B150" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B151" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B152" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B153" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B154" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B155" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B156" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B157" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B158" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B159" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B160" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B161" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B162" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B163" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B164" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B165" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B166" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B167" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B168" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B169" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B170" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B171" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B172" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B173" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B174" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B175" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B176" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B177" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B179" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B180" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B182" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B183" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B184" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B185" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B186" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B187" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B188" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B189" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B190" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B191" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B192" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B193" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B194" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B195" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6366,7 +7002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
@@ -8392,8 +9028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8876,7 +9512,9 @@
       <c r="B35" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
@@ -8888,7 +9526,9 @@
       <c r="B36" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" s="9">
         <v>3</v>
       </c>
@@ -8914,7 +9554,9 @@
       <c r="B38" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D38" s="6">
         <v>2</v>
       </c>
@@ -8926,7 +9568,9 @@
       <c r="B39" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D39" s="9">
         <v>3</v>
       </c>
@@ -8952,7 +9596,9 @@
       <c r="B41" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" s="6">
         <v>2</v>
       </c>
@@ -8964,7 +9610,9 @@
       <c r="B42" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D42" s="9">
         <v>3</v>
       </c>
@@ -8990,7 +9638,9 @@
       <c r="B44" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D44" s="6">
         <v>2</v>
       </c>
@@ -9002,7 +9652,9 @@
       <c r="B45" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D45" s="6">
         <v>3</v>
       </c>
@@ -9028,7 +9680,9 @@
       <c r="B47" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D47" s="6">
         <v>2</v>
       </c>
@@ -9040,7 +9694,9 @@
       <c r="B48" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D48" s="9">
         <v>3</v>
       </c>
@@ -9066,7 +9722,9 @@
       <c r="B50" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D50" s="6">
         <v>2</v>
       </c>
@@ -9078,7 +9736,9 @@
       <c r="B51" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D51" s="9">
         <v>3</v>
       </c>
@@ -9104,7 +9764,9 @@
       <c r="B53" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
@@ -9116,7 +9778,9 @@
       <c r="B54" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D54" s="9">
         <v>3</v>
       </c>
@@ -9142,7 +9806,9 @@
       <c r="B56" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
@@ -9154,7 +9820,9 @@
       <c r="B57" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D57" s="9">
         <v>3</v>
       </c>
@@ -9180,7 +9848,9 @@
       <c r="B59" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
@@ -9192,7 +9862,9 @@
       <c r="B60" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D60" s="6">
         <v>3</v>
       </c>
@@ -9218,7 +9890,9 @@
       <c r="B62" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D62" s="6">
         <v>2</v>
       </c>
@@ -9230,7 +9904,9 @@
       <c r="B63" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D63" s="9">
         <v>3</v>
       </c>
@@ -9256,7 +9932,9 @@
       <c r="B65" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D65" s="6">
         <v>2</v>
       </c>
@@ -9268,7 +9946,9 @@
       <c r="B66" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D66" s="9">
         <v>3</v>
       </c>
@@ -9294,7 +9974,9 @@
       <c r="B68" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
@@ -9306,7 +9988,9 @@
       <c r="B69" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C69" s="8"/>
+      <c r="C69" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D69" s="9">
         <v>3</v>
       </c>
@@ -9332,7 +10016,9 @@
       <c r="B71" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
@@ -9344,7 +10030,9 @@
       <c r="B72" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="8"/>
+      <c r="C72" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D72" s="9">
         <v>3</v>
       </c>
@@ -9370,7 +10058,9 @@
       <c r="B74" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D74" s="6">
         <v>2</v>
       </c>
@@ -9382,7 +10072,9 @@
       <c r="B75" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D75" s="6">
         <v>3</v>
       </c>
@@ -9408,7 +10100,9 @@
       <c r="B77" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D77" s="6">
         <v>2</v>
       </c>
@@ -9420,7 +10114,9 @@
       <c r="B78" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D78" s="9">
         <v>3</v>
       </c>
@@ -9446,7 +10142,9 @@
       <c r="B80" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D80" s="6">
         <v>2</v>
       </c>
@@ -9458,7 +10156,9 @@
       <c r="B81" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C81" s="8"/>
+      <c r="C81" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D81" s="9">
         <v>3</v>
       </c>
@@ -9484,7 +10184,9 @@
       <c r="B83" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D83" s="6">
         <v>2</v>
       </c>
@@ -9496,7 +10198,9 @@
       <c r="B84" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="8"/>
+      <c r="C84" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D84" s="9">
         <v>3</v>
       </c>
@@ -9522,7 +10226,9 @@
       <c r="B86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D86" s="6">
         <v>2</v>
       </c>
@@ -9534,7 +10240,9 @@
       <c r="B87" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C87" s="8"/>
+      <c r="C87" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D87" s="9">
         <v>3</v>
       </c>
@@ -9560,7 +10268,9 @@
       <c r="B89" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D89" s="6">
         <v>2</v>
       </c>
@@ -9572,7 +10282,9 @@
       <c r="B90" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C90" s="8"/>
+      <c r="C90" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
@@ -9598,7 +10310,9 @@
       <c r="B92" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D92" s="6">
         <v>2</v>
       </c>
@@ -9610,7 +10324,9 @@
       <c r="B93" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="8"/>
+      <c r="C93" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D93" s="9">
         <v>3</v>
       </c>
@@ -9636,7 +10352,9 @@
       <c r="B95" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D95" s="6">
         <v>2</v>
       </c>
@@ -9648,7 +10366,9 @@
       <c r="B96" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D96" s="9">
         <v>3</v>
       </c>
@@ -9674,7 +10394,9 @@
       <c r="B98" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D98" s="6">
         <v>2</v>
       </c>
@@ -9686,7 +10408,9 @@
       <c r="B99" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C99" s="8"/>
+      <c r="C99" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D99" s="9">
         <v>3</v>
       </c>
@@ -9712,7 +10436,9 @@
       <c r="B101" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D101" s="6">
         <v>2</v>
       </c>
@@ -9724,7 +10450,9 @@
       <c r="B102" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C102" s="8"/>
+      <c r="C102" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D102" s="9">
         <v>3</v>
       </c>
@@ -9750,7 +10478,9 @@
       <c r="B104" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D104" s="6">
         <v>2</v>
       </c>
@@ -9762,7 +10492,9 @@
       <c r="B105" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D105" s="6">
         <v>3</v>
       </c>
@@ -9788,7 +10520,9 @@
       <c r="B107" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D107" s="6">
         <v>2</v>
       </c>
@@ -9800,7 +10534,9 @@
       <c r="B108" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D108" s="9">
         <v>3</v>
       </c>
@@ -9826,7 +10562,9 @@
       <c r="B110" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D110" s="6">
         <v>2</v>
       </c>
@@ -9838,7 +10576,9 @@
       <c r="B111" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C111" s="8"/>
+      <c r="C111" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D111" s="9">
         <v>3</v>
       </c>
@@ -9864,7 +10604,9 @@
       <c r="B113" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D113" s="6">
         <v>2</v>
       </c>
@@ -9876,7 +10618,9 @@
       <c r="B114" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="8"/>
+      <c r="C114" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D114" s="9">
         <v>3</v>
       </c>
@@ -9902,7 +10646,9 @@
       <c r="B116" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="5"/>
+      <c r="C116" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D116" s="6">
         <v>2</v>
       </c>
@@ -9914,7 +10660,9 @@
       <c r="B117" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="8"/>
+      <c r="C117" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D117" s="9">
         <v>3</v>
       </c>
@@ -9940,7 +10688,9 @@
       <c r="B119" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D119" s="6">
         <v>2</v>
       </c>
@@ -9952,7 +10702,9 @@
       <c r="B120" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C120" s="8"/>
+      <c r="C120" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -9978,7 +10730,9 @@
       <c r="B122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D122" s="6">
         <v>2</v>
       </c>
@@ -9990,7 +10744,9 @@
       <c r="B123" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="8"/>
+      <c r="C123" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D123" s="9">
         <v>3</v>
       </c>
@@ -10016,7 +10772,9 @@
       <c r="B125" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D125" s="6">
         <v>2</v>
       </c>
@@ -10028,7 +10786,9 @@
       <c r="B126" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="8"/>
+      <c r="C126" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D126" s="9">
         <v>3</v>
       </c>
@@ -10054,7 +10814,9 @@
       <c r="B128" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D128" s="6">
         <v>2</v>
       </c>
@@ -10066,7 +10828,9 @@
       <c r="B129" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C129" s="8"/>
+      <c r="C129" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D129" s="9">
         <v>3</v>
       </c>
@@ -10092,7 +10856,9 @@
       <c r="B131" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C131" s="5"/>
+      <c r="C131" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D131" s="6">
         <v>2</v>
       </c>
@@ -10104,7 +10870,9 @@
       <c r="B132" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C132" s="8"/>
+      <c r="C132" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D132" s="9">
         <v>3</v>
       </c>
@@ -10130,7 +10898,9 @@
       <c r="B134" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D134" s="6">
         <v>2</v>
       </c>
@@ -10142,7 +10912,9 @@
       <c r="B135" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C135" s="8"/>
+      <c r="C135" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D135" s="6">
         <v>3</v>
       </c>
@@ -10168,7 +10940,9 @@
       <c r="B137" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C137" s="5"/>
+      <c r="C137" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D137" s="6">
         <v>2</v>
       </c>
@@ -10180,7 +10954,9 @@
       <c r="B138" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D138" s="9">
         <v>3</v>
       </c>
@@ -10206,7 +10982,9 @@
       <c r="B140" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C140" s="5"/>
+      <c r="C140" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D140" s="6">
         <v>2</v>
       </c>
@@ -10218,7 +10996,9 @@
       <c r="B141" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C141" s="8"/>
+      <c r="C141" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D141" s="9">
         <v>3</v>
       </c>
@@ -10244,7 +11024,9 @@
       <c r="B143" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C143" s="5"/>
+      <c r="C143" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D143" s="6">
         <v>2</v>
       </c>
@@ -10256,7 +11038,9 @@
       <c r="B144" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="8"/>
+      <c r="C144" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D144" s="9">
         <v>3</v>
       </c>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E4198B-193E-425C-B03D-A4F307D9D1DB}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71310E9A-8C6F-4C98-80EA-6D2CF70A1862}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="517">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -1697,12 +1697,24 @@
     <t>マトバ　スズ?</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>毎年迷う！*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THE B3*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凪のはいから魚人*</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,6 +1782,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1944,7 +1963,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2031,6 +2050,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4527,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5356,15 +5378,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>420</v>
+      <c r="C55" s="29" t="s">
+        <v>514</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5402,7 +5424,7 @@
         <v>486</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -7002,8 +7024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8244,7 +8266,7 @@
         <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>

--- a/static.xlsx
+++ b/static.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A_t4i\OneDrive\デスクトップ\BPUMP\The3\the3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{8176DC3B-0F7B-4664-BD5C-E7FD44B96932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71310E9A-8C6F-4C98-80EA-6D2CF70A1862}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -1694,10 +1694,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マトバ　スズ?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>毎年迷う！*</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1707,6 +1703,10 @@
   </si>
   <si>
     <t>凪のはいから魚人*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨダ　ヒナ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2326,10 +2326,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5386,7 +5382,7 @@
         <v>483</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5424,7 +5420,7 @@
         <v>486</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -7024,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8266,7 +8262,7 @@
         <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -8479,7 +8475,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">

--- a/static.xlsx
+++ b/static.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A_t4i\OneDrive\デスクトップ\BPUMP\The3\the3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C618E01-5F02-48F9-B034-31FC75E69883}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -1791,7 +1791,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1840,6 +1840,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,11 +2054,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5381,7 +5387,7 @@
       <c r="B55" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>513</v>
       </c>
       <c r="D55" s="3">
@@ -7020,8 +7026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8474,7 +8480,7 @@
       <c r="A105" s="4">
         <v>105</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="29" t="s">
         <v>516</v>
       </c>
       <c r="C105" s="5"/>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C618E01-5F02-48F9-B034-31FC75E69883}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3566AEA8-4925-4A45-A5E1-B293776F046B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="518">
   <si>
     <t>M1</t>
     <phoneticPr fontId="1"/>
@@ -1261,15 +1261,6 @@
     <t>BE:FIRST</t>
   </si>
   <si>
-    <t>ヤマモト　マオ</t>
-  </si>
-  <si>
-    <t>ニト　ホノカ</t>
-  </si>
-  <si>
-    <t>カワタ　ユウゴ</t>
-  </si>
-  <si>
     <t>ナガモリ　ハレル</t>
   </si>
   <si>
@@ -1707,6 +1698,22 @@
   </si>
   <si>
     <t>ヨダ　ヒナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>team ・ggg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマモト　マオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニト　ホノカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カワタ　ユウゴ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2332,6 +2339,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4567,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4581,14 +4592,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4596,14 +4607,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4611,16 +4622,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4628,14 +4639,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4643,14 +4654,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4658,16 +4669,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>404</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4675,14 +4686,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4690,14 +4701,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <v>3</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4705,16 +4716,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4722,14 +4733,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4737,14 +4748,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <v>3</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4752,16 +4763,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4769,14 +4780,14 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4784,14 +4795,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4799,16 +4810,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -4816,14 +4827,14 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4831,14 +4842,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -4846,16 +4857,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -4864,14 +4875,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -4880,14 +4891,14 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -4895,16 +4906,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -4912,14 +4923,14 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4927,14 +4938,14 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9">
         <v>3</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -4942,16 +4953,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4959,14 +4970,14 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4974,14 +4985,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
         <v>3</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -4989,16 +5000,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5006,14 +5017,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -5021,7 +5032,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
@@ -5033,10 +5044,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5047,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -5059,7 +5070,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9">
@@ -5071,10 +5082,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -5085,7 +5096,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -5097,7 +5108,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -5109,10 +5120,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -5123,14 +5134,14 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5138,14 +5149,14 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
         <v>3</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5153,16 +5164,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5170,14 +5181,14 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
         <v>2</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5185,14 +5196,14 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
         <v>3</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5200,16 +5211,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C43" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>416</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5217,14 +5228,14 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
         <v>2</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5232,14 +5243,14 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -5247,16 +5258,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -5264,14 +5275,14 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
         <v>2</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5279,14 +5290,14 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
         <v>3</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5294,16 +5305,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -5311,14 +5322,14 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5326,14 +5337,14 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5341,16 +5352,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -5358,14 +5369,14 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -5373,7 +5384,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -5385,10 +5396,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5399,7 +5410,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -5411,7 +5422,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -5423,10 +5434,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -5437,7 +5448,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -5449,7 +5460,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -5461,10 +5472,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -5475,7 +5486,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -5487,7 +5498,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -5499,10 +5510,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5513,7 +5524,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -5525,7 +5536,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -5537,10 +5548,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -5551,7 +5562,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -5563,7 +5574,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9">
@@ -5575,10 +5586,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -5589,7 +5600,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -5601,7 +5612,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -5613,10 +5624,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -5627,7 +5638,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -5639,7 +5650,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6">
@@ -5654,7 +5665,7 @@
         <v>252</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -5665,7 +5676,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -5677,7 +5688,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9">
@@ -5689,10 +5700,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -5703,7 +5714,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -5715,7 +5726,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -5727,10 +5738,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -5741,7 +5752,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -5753,7 +5764,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -7026,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8268,7 +8279,7 @@
         <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -8481,7 +8492,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -8607,10 +8618,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>357</v>
+        <v>515</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>357</v>
+        <v>514</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -8621,7 +8632,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>357</v>
+        <v>516</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>357</v>
@@ -8635,7 +8646,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>357</v>
+        <v>517</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>357</v>
@@ -9052,8 +9063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -9067,10 +9078,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -9081,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
@@ -9093,7 +9104,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
@@ -9105,7 +9116,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>359</v>
@@ -9122,7 +9133,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
@@ -9137,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
@@ -9152,7 +9163,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>360</v>
@@ -9169,7 +9180,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -9184,7 +9195,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
@@ -9199,7 +9210,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>361</v>
@@ -9216,7 +9227,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -9231,7 +9242,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -9246,7 +9257,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>362</v>
@@ -9263,7 +9274,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -9278,7 +9289,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -9290,7 +9301,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>363</v>
@@ -9304,7 +9315,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -9316,7 +9327,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -9328,7 +9339,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>364</v>
@@ -9343,7 +9354,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -9356,7 +9367,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -9368,7 +9379,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>365</v>
@@ -9382,7 +9393,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -9394,7 +9405,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -9406,7 +9417,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>366</v>
@@ -9420,7 +9431,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -9432,7 +9443,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9">
@@ -9444,7 +9455,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>367</v>
@@ -9458,7 +9469,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -9470,7 +9481,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
@@ -9482,7 +9493,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>368</v>
@@ -9496,7 +9507,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -9508,7 +9519,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9">

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3566AEA8-4925-4A45-A5E1-B293776F046B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3702A-4C96-4F56-8532-12CB79C81D39}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="OPEN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1273,9 +1274,6 @@
     <t>オオニシ　ケイセツ</t>
   </si>
   <si>
-    <t>ハマダ　リュウセイ</t>
-  </si>
-  <si>
     <t>コヤマツ　レン</t>
   </si>
   <si>
@@ -1714,6 +1712,10 @@
   </si>
   <si>
     <t>カワタ　ユウゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンショウ　ゼンタ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4578,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4592,14 +4594,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4607,14 +4609,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4622,16 +4624,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>400</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4639,14 +4641,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4654,14 +4656,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4669,16 +4671,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4686,14 +4688,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4701,14 +4703,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <v>3</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4716,16 +4718,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4733,14 +4735,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4748,14 +4750,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <v>3</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4763,16 +4765,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4780,14 +4782,14 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4795,14 +4797,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4810,16 +4812,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -4827,14 +4829,14 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4842,14 +4844,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -4857,16 +4859,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -4875,14 +4877,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -4891,14 +4893,14 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -4906,16 +4908,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -4923,14 +4925,14 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4938,14 +4940,14 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9">
         <v>3</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -4953,16 +4955,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4970,14 +4972,14 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4985,14 +4987,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9">
         <v>3</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -5000,16 +5002,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5017,14 +5019,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -5032,7 +5034,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
@@ -5044,10 +5046,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5058,7 +5060,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -5070,7 +5072,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9">
@@ -5082,10 +5084,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -5096,7 +5098,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -5108,7 +5110,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -5120,10 +5122,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -5134,14 +5136,14 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5149,14 +5151,14 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
         <v>3</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5164,16 +5166,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="27" t="s">
         <v>412</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5181,14 +5183,14 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
         <v>2</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5196,14 +5198,14 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
         <v>3</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5211,16 +5213,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5228,14 +5230,14 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
         <v>2</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5243,14 +5245,14 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -5258,16 +5260,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -5275,14 +5277,14 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
         <v>2</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5290,14 +5292,14 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
         <v>3</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5305,16 +5307,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -5322,14 +5324,14 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
         <v>2</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -5337,14 +5339,14 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
         <v>3</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5352,16 +5354,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -5369,14 +5371,14 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -5384,7 +5386,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -5396,10 +5398,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5410,7 +5412,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -5422,7 +5424,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -5434,10 +5436,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -5448,7 +5450,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -5460,7 +5462,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -5472,10 +5474,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -5486,7 +5488,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -5498,7 +5500,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -5510,10 +5512,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5524,7 +5526,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -5536,7 +5538,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -5548,10 +5550,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -5562,7 +5564,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -5574,7 +5576,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9">
@@ -5586,10 +5588,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -5600,7 +5602,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -5612,7 +5614,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -5624,10 +5626,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -5638,7 +5640,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -5650,7 +5652,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6">
@@ -5665,7 +5667,7 @@
         <v>252</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -5676,7 +5678,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -5688,7 +5690,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9">
@@ -5700,10 +5702,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -5714,7 +5716,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -5726,7 +5728,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -5738,10 +5740,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -5752,7 +5754,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -5764,7 +5766,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -7037,7 +7039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D47F0CE-223C-4D4E-A1D9-A35908A3177E}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
@@ -8279,7 +8281,7 @@
         <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -8492,7 +8494,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -8618,10 +8620,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -8632,7 +8634,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>357</v>
@@ -8646,7 +8648,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>357</v>
@@ -9063,8 +9065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -9180,7 +9182,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -9195,7 +9197,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
@@ -9210,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>361</v>
@@ -9227,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -9242,7 +9244,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
@@ -9257,7 +9259,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>362</v>
@@ -9274,7 +9276,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -9289,7 +9291,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -9301,7 +9303,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>363</v>
@@ -9315,7 +9317,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -9327,7 +9329,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -9339,7 +9341,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>364</v>
@@ -9354,7 +9356,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -9367,7 +9369,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -9379,7 +9381,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>365</v>
@@ -9393,7 +9395,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -9405,7 +9407,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
@@ -9417,7 +9419,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>366</v>
@@ -9431,7 +9433,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -9443,7 +9445,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9">
@@ -9455,7 +9457,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>367</v>
@@ -9469,7 +9471,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -9481,7 +9483,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="6">
@@ -9493,7 +9495,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>368</v>
@@ -9507,7 +9509,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -9519,7 +9521,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9">

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The3/the3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3702A-4C96-4F56-8532-12CB79C81D39}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{23404A75-D746-4E29-A6CC-4BBEAE5FDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0ECF2D0-FE63-4782-951C-877AC9F5FA3E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1523,9 +1523,6 @@
     <t>カトウ　アユミ</t>
   </si>
   <si>
-    <t>イトウ　ホナミ</t>
-  </si>
-  <si>
     <t>モミヤマ　ヨシナリ</t>
   </si>
   <si>
@@ -1716,6 +1713,10 @@
   </si>
   <si>
     <t>バンショウ　ゼンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イトウ　ホノミ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4564,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA659-72CE-486B-BCF6-D12DDDA1432F}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4893,7 +4894,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
@@ -5060,7 +5061,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -5072,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9">
@@ -5084,7 +5085,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>409</v>
@@ -5098,7 +5099,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -5110,7 +5111,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
@@ -5122,7 +5123,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>410</v>
@@ -5136,7 +5137,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -5151,7 +5152,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
@@ -5166,7 +5167,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>411</v>
@@ -5183,7 +5184,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -5198,7 +5199,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
@@ -5213,7 +5214,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>412</v>
@@ -5230,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -5245,7 +5246,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6">
@@ -5260,7 +5261,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>413</v>
@@ -5277,7 +5278,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -5292,7 +5293,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
@@ -5307,7 +5308,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>414</v>
@@ -5324,7 +5325,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -5339,7 +5340,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
@@ -5354,7 +5355,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>415</v>
@@ -5371,7 +5372,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -5386,7 +5387,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
@@ -5398,10 +5399,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5412,7 +5413,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -5424,7 +5425,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
@@ -5436,10 +5437,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -5450,7 +5451,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -5462,7 +5463,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -5474,7 +5475,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>418</v>
@@ -5488,7 +5489,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -5500,7 +5501,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
@@ -5512,7 +5513,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>419</v>
@@ -5526,7 +5527,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -5538,7 +5539,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
@@ -5550,7 +5551,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>420</v>
@@ -5564,7 +5565,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -5576,7 +5577,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9">
@@ -5588,7 +5589,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>421</v>
@@ -5602,7 +5603,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -5614,7 +5615,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
@@ -5626,7 +5627,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>422</v>
@@ -5640,7 +5641,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -5652,7 +5653,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6">
@@ -5678,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -5690,7 +5691,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9">
@@ -5702,7 +5703,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>424</v>
@@ -5716,7 +5717,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -5728,7 +5729,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
@@ -5740,7 +5741,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>425</v>
@@ -5754,7 +5755,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -5766,7 +5767,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
@@ -8281,7 +8282,7 @@
         <v>331</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -8494,7 +8495,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
@@ -8620,10 +8621,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -8634,7 +8635,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>357</v>
@@ -8648,7 +8649,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>357</v>
@@ -9065,7 +9066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAD69F-046A-4DBC-BD80-78475A186A1B}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -9182,7 +9183,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">

--- a/static.xlsx
+++ b/static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b-pump/Library/Mobile Documents/com~apple~CloudDocs/VSCode/the1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371195E0-B4D9-4429-82F6-D0216AC0E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBFCA3-CFDE-0F4B-B5AC-E5EF695DE8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="510">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -452,12 +452,1220 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>asp_M1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp_M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp_M3</t>
+  </si>
+  <si>
+    <t>asp_M4</t>
+  </si>
+  <si>
+    <t>asp_M5</t>
+  </si>
+  <si>
+    <t>asp_M6</t>
+  </si>
+  <si>
+    <t>asp_M7</t>
+  </si>
+  <si>
+    <t>asp_M8</t>
+  </si>
+  <si>
+    <t>asp_M9</t>
+  </si>
+  <si>
+    <t>asp_M10</t>
+  </si>
+  <si>
+    <t>asp_M11</t>
+  </si>
+  <si>
+    <t>asp_M12</t>
+  </si>
+  <si>
+    <t>asp_M13</t>
+  </si>
+  <si>
+    <t>asp_M14</t>
+  </si>
+  <si>
+    <t>asp_M15</t>
+  </si>
+  <si>
+    <t>asp_M16</t>
+  </si>
+  <si>
+    <t>asp_M17</t>
+  </si>
+  <si>
+    <t>asp_M18</t>
+  </si>
+  <si>
+    <t>asp_M19</t>
+  </si>
+  <si>
+    <t>asp_M20</t>
+  </si>
+  <si>
+    <t>asp_M21</t>
+  </si>
+  <si>
+    <t>asp_M22</t>
+  </si>
+  <si>
+    <t>asp_M23</t>
+  </si>
+  <si>
+    <t>asp_M24</t>
+  </si>
+  <si>
+    <t>asp_M25</t>
+  </si>
+  <si>
+    <t>asp_M26</t>
+  </si>
+  <si>
+    <t>asp_M27</t>
+  </si>
+  <si>
+    <t>asp_M28</t>
+  </si>
+  <si>
+    <t>asp_M29</t>
+  </si>
+  <si>
+    <t>asp_M30</t>
+  </si>
+  <si>
+    <t>asp_M31</t>
+  </si>
+  <si>
+    <t>asp_M32</t>
+  </si>
+  <si>
+    <t>asp_M33</t>
+  </si>
+  <si>
+    <t>asp_M34</t>
+  </si>
+  <si>
+    <t>asp_M35</t>
+  </si>
+  <si>
+    <t>asp_M36</t>
+  </si>
+  <si>
+    <t>asp_M37</t>
+  </si>
+  <si>
+    <t>asp_M38</t>
+  </si>
+  <si>
+    <t>asp_M39</t>
+  </si>
+  <si>
+    <t>asp_M40</t>
+  </si>
+  <si>
+    <t>asp_M41</t>
+  </si>
+  <si>
+    <t>asp_M42</t>
+  </si>
+  <si>
+    <t>asp_M43</t>
+  </si>
+  <si>
+    <t>asp_M44</t>
+  </si>
+  <si>
+    <t>asp_M45</t>
+  </si>
+  <si>
+    <t>asp_M46</t>
+  </si>
+  <si>
+    <t>asp_M47</t>
+  </si>
+  <si>
+    <t>asp_M48</t>
+  </si>
+  <si>
+    <t>asp_M49</t>
+  </si>
+  <si>
+    <t>asp_M50</t>
+  </si>
+  <si>
+    <t>asp_M51</t>
+  </si>
+  <si>
+    <t>asp_M52</t>
+  </si>
+  <si>
+    <t>asp_M53</t>
+  </si>
+  <si>
+    <t>asp_M54</t>
+  </si>
+  <si>
+    <t>asp_M55</t>
+  </si>
+  <si>
+    <t>asp_M56</t>
+  </si>
+  <si>
+    <t>asp_M57</t>
+  </si>
+  <si>
+    <t>asp_M58</t>
+  </si>
+  <si>
+    <t>asp_M59</t>
+  </si>
+  <si>
+    <t>asp_M60</t>
+  </si>
+  <si>
+    <t>asp_M61</t>
+  </si>
+  <si>
+    <t>asp_M62</t>
+  </si>
+  <si>
+    <t>asp_M63</t>
+  </si>
+  <si>
+    <t>asp_M64</t>
+  </si>
+  <si>
+    <t>asp_M65</t>
+  </si>
+  <si>
+    <t>asp_M66</t>
+  </si>
+  <si>
+    <t>asp_M67</t>
+  </si>
+  <si>
+    <t>asp_M68</t>
+  </si>
+  <si>
+    <t>asp_M69</t>
+  </si>
+  <si>
+    <t>asp_M70</t>
+  </si>
+  <si>
+    <t>asp_M71</t>
+  </si>
+  <si>
+    <t>asp_M72</t>
+  </si>
+  <si>
+    <t>asp_M73</t>
+  </si>
+  <si>
+    <t>asp_M74</t>
+  </si>
+  <si>
+    <t>asp_M75</t>
+  </si>
+  <si>
+    <t>asp_M76</t>
+  </si>
+  <si>
+    <t>asp_M77</t>
+  </si>
+  <si>
+    <t>asp_M78</t>
+  </si>
+  <si>
+    <t>asp_M79</t>
+  </si>
+  <si>
+    <t>asp_M80</t>
+  </si>
+  <si>
+    <t>asp_M81</t>
+  </si>
+  <si>
+    <t>asp_M82</t>
+  </si>
+  <si>
+    <t>asp_M83</t>
+  </si>
+  <si>
+    <t>asp_M84</t>
+  </si>
+  <si>
+    <t>asp_M85</t>
+  </si>
+  <si>
+    <t>asp_M86</t>
+  </si>
+  <si>
+    <t>asp_M87</t>
+  </si>
+  <si>
+    <t>asp_M88</t>
+  </si>
+  <si>
+    <t>asp_M89</t>
+  </si>
+  <si>
+    <t>asp_M90</t>
+  </si>
+  <si>
+    <t>asp_M91</t>
+  </si>
+  <si>
+    <t>asp_M92</t>
+  </si>
+  <si>
+    <t>asp_M93</t>
+  </si>
+  <si>
+    <t>asp_M94</t>
+  </si>
+  <si>
+    <t>asp_M95</t>
+  </si>
+  <si>
+    <t>asp_M96</t>
+  </si>
+  <si>
+    <t>asp_M97</t>
+  </si>
+  <si>
+    <t>asp_M98</t>
+  </si>
+  <si>
+    <t>asp_M99</t>
+  </si>
+  <si>
+    <t>asp_M100</t>
+  </si>
+  <si>
+    <t>asp_W1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp_W2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp_W3</t>
+  </si>
+  <si>
+    <t>asp_W4</t>
+  </si>
+  <si>
+    <t>asp_W5</t>
+  </si>
+  <si>
+    <t>asp_W6</t>
+  </si>
+  <si>
+    <t>asp_W7</t>
+  </si>
+  <si>
+    <t>asp_W8</t>
+  </si>
+  <si>
+    <t>asp_W9</t>
+  </si>
+  <si>
+    <t>asp_W10</t>
+  </si>
+  <si>
+    <t>asp_W11</t>
+  </si>
+  <si>
+    <t>asp_W12</t>
+  </si>
+  <si>
+    <t>asp_W13</t>
+  </si>
+  <si>
+    <t>asp_W14</t>
+  </si>
+  <si>
+    <t>asp_W15</t>
+  </si>
+  <si>
+    <t>asp_W16</t>
+  </si>
+  <si>
+    <t>asp_W17</t>
+  </si>
+  <si>
+    <t>asp_W18</t>
+  </si>
+  <si>
+    <t>asp_W19</t>
+  </si>
+  <si>
+    <t>asp_W20</t>
+  </si>
+  <si>
+    <t>asp_W21</t>
+  </si>
+  <si>
+    <t>asp_W22</t>
+  </si>
+  <si>
+    <t>asp_W23</t>
+  </si>
+  <si>
+    <t>asp_W24</t>
+  </si>
+  <si>
+    <t>asp_W25</t>
+  </si>
+  <si>
+    <t>asp_W26</t>
+  </si>
+  <si>
+    <t>asp_W27</t>
+  </si>
+  <si>
+    <t>asp_W28</t>
+  </si>
+  <si>
+    <t>asp_W29</t>
+  </si>
+  <si>
+    <t>asp_W30</t>
+  </si>
+  <si>
+    <t>asp_W31</t>
+  </si>
+  <si>
+    <t>asp_W32</t>
+  </si>
+  <si>
+    <t>asp_W33</t>
+  </si>
+  <si>
+    <t>asp_W34</t>
+  </si>
+  <si>
+    <t>asp_W35</t>
+  </si>
+  <si>
+    <t>asp_W36</t>
+  </si>
+  <si>
+    <t>asp_W37</t>
+  </si>
+  <si>
+    <t>asp_W38</t>
+  </si>
+  <si>
+    <t>asp_W39</t>
+  </si>
+  <si>
+    <t>asp_W40</t>
+  </si>
+  <si>
+    <t>asp_W41</t>
+  </si>
+  <si>
+    <t>asp_W42</t>
+  </si>
+  <si>
+    <t>asp_W43</t>
+  </si>
+  <si>
+    <t>asp_W44</t>
+  </si>
+  <si>
+    <t>asp_W45</t>
+  </si>
+  <si>
+    <t>asp_W46</t>
+  </si>
+  <si>
+    <t>asp_W47</t>
+  </si>
+  <si>
+    <t>asp_W48</t>
+  </si>
+  <si>
+    <t>asp_W49</t>
+  </si>
+  <si>
+    <t>asp_W50</t>
+  </si>
+  <si>
+    <t>asp_W51</t>
+  </si>
+  <si>
+    <t>asp_W52</t>
+  </si>
+  <si>
+    <t>asp_W53</t>
+  </si>
+  <si>
+    <t>asp_W54</t>
+  </si>
+  <si>
+    <t>asp_W55</t>
+  </si>
+  <si>
+    <t>asp_W56</t>
+  </si>
+  <si>
+    <t>asp_W57</t>
+  </si>
+  <si>
+    <t>asp_W58</t>
+  </si>
+  <si>
+    <t>asp_W59</t>
+  </si>
+  <si>
+    <t>asp_W60</t>
+  </si>
+  <si>
+    <t>asp_W61</t>
+  </si>
+  <si>
+    <t>asp_W62</t>
+  </si>
+  <si>
+    <t>asp_W63</t>
+  </si>
+  <si>
+    <t>asp_W64</t>
+  </si>
+  <si>
+    <t>asp_W65</t>
+  </si>
+  <si>
+    <t>asp_W66</t>
+  </si>
+  <si>
+    <t>asp_W67</t>
+  </si>
+  <si>
+    <t>asp_W68</t>
+  </si>
+  <si>
+    <t>asp_W69</t>
+  </si>
+  <si>
+    <t>asp_W70</t>
+  </si>
+  <si>
+    <t>asp_W71</t>
+  </si>
+  <si>
+    <t>asp_W72</t>
+  </si>
+  <si>
+    <t>asp_W73</t>
+  </si>
+  <si>
+    <t>asp_W74</t>
+  </si>
+  <si>
+    <t>asp_W75</t>
+  </si>
+  <si>
+    <t>asp_W76</t>
+  </si>
+  <si>
+    <t>asp_W77</t>
+  </si>
+  <si>
+    <t>asp_W78</t>
+  </si>
+  <si>
+    <t>asp_W79</t>
+  </si>
+  <si>
+    <t>asp_W80</t>
+  </si>
+  <si>
+    <t>asp_W81</t>
+  </si>
+  <si>
+    <t>asp_W82</t>
+  </si>
+  <si>
+    <t>asp_W83</t>
+  </si>
+  <si>
+    <t>asp_W84</t>
+  </si>
+  <si>
+    <t>asp_W85</t>
+  </si>
+  <si>
+    <t>asp_W86</t>
+  </si>
+  <si>
+    <t>asp_W87</t>
+  </si>
+  <si>
+    <t>asp_W88</t>
+  </si>
+  <si>
+    <t>asp_W89</t>
+  </si>
+  <si>
+    <t>asp_W90</t>
+  </si>
+  <si>
+    <t>asp_W91</t>
+  </si>
+  <si>
+    <t>asp_W92</t>
+  </si>
+  <si>
+    <t>asp_W93</t>
+  </si>
+  <si>
+    <t>asp_W94</t>
+  </si>
+  <si>
+    <t>asp_W95</t>
+  </si>
+  <si>
+    <t>asp_W96</t>
+  </si>
+  <si>
+    <t>asp_W97</t>
+  </si>
+  <si>
+    <t>asp_W98</t>
+  </si>
+  <si>
+    <t>asp_W99</t>
+  </si>
+  <si>
+    <t>asp_W100</t>
+  </si>
+  <si>
+    <t>fin_M1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin_M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin_M3</t>
+  </si>
+  <si>
+    <t>fin_M4</t>
+  </si>
+  <si>
+    <t>fin_M5</t>
+  </si>
+  <si>
+    <t>fin_M6</t>
+  </si>
+  <si>
+    <t>fin_M7</t>
+  </si>
+  <si>
+    <t>fin_M8</t>
+  </si>
+  <si>
+    <t>fin_M9</t>
+  </si>
+  <si>
+    <t>fin_M10</t>
+  </si>
+  <si>
+    <t>fin_M11</t>
+  </si>
+  <si>
+    <t>fin_M12</t>
+  </si>
+  <si>
+    <t>fin_M13</t>
+  </si>
+  <si>
+    <t>fin_M14</t>
+  </si>
+  <si>
+    <t>fin_M15</t>
+  </si>
+  <si>
+    <t>fin_M16</t>
+  </si>
+  <si>
+    <t>fin_M17</t>
+  </si>
+  <si>
+    <t>fin_M18</t>
+  </si>
+  <si>
+    <t>fin_M19</t>
+  </si>
+  <si>
+    <t>fin_M20</t>
+  </si>
+  <si>
+    <t>fin_M21</t>
+  </si>
+  <si>
+    <t>fin_M22</t>
+  </si>
+  <si>
+    <t>fin_M23</t>
+  </si>
+  <si>
+    <t>fin_M24</t>
+  </si>
+  <si>
+    <t>fin_M25</t>
+  </si>
+  <si>
+    <t>fin_M26</t>
+  </si>
+  <si>
+    <t>fin_M27</t>
+  </si>
+  <si>
+    <t>fin_M28</t>
+  </si>
+  <si>
+    <t>fin_M29</t>
+  </si>
+  <si>
+    <t>fin_M30</t>
+  </si>
+  <si>
+    <t>fin_M31</t>
+  </si>
+  <si>
+    <t>fin_M32</t>
+  </si>
+  <si>
+    <t>fin_M33</t>
+  </si>
+  <si>
+    <t>fin_M34</t>
+  </si>
+  <si>
+    <t>fin_M35</t>
+  </si>
+  <si>
+    <t>fin_M36</t>
+  </si>
+  <si>
+    <t>fin_M37</t>
+  </si>
+  <si>
+    <t>fin_M38</t>
+  </si>
+  <si>
+    <t>fin_M39</t>
+  </si>
+  <si>
+    <t>fin_M40</t>
+  </si>
+  <si>
+    <t>fin_M41</t>
+  </si>
+  <si>
+    <t>fin_M42</t>
+  </si>
+  <si>
+    <t>fin_M43</t>
+  </si>
+  <si>
+    <t>fin_M44</t>
+  </si>
+  <si>
+    <t>fin_M45</t>
+  </si>
+  <si>
+    <t>fin_M46</t>
+  </si>
+  <si>
+    <t>fin_M47</t>
+  </si>
+  <si>
+    <t>fin_M48</t>
+  </si>
+  <si>
+    <t>fin_M49</t>
+  </si>
+  <si>
+    <t>fin_M50</t>
+  </si>
+  <si>
+    <t>fin_M51</t>
+  </si>
+  <si>
+    <t>fin_M52</t>
+  </si>
+  <si>
+    <t>fin_M53</t>
+  </si>
+  <si>
+    <t>fin_M54</t>
+  </si>
+  <si>
+    <t>fin_M55</t>
+  </si>
+  <si>
+    <t>fin_M56</t>
+  </si>
+  <si>
+    <t>fin_M57</t>
+  </si>
+  <si>
+    <t>fin_M58</t>
+  </si>
+  <si>
+    <t>fin_M59</t>
+  </si>
+  <si>
+    <t>fin_M60</t>
+  </si>
+  <si>
+    <t>fin_M61</t>
+  </si>
+  <si>
+    <t>fin_M62</t>
+  </si>
+  <si>
+    <t>fin_M63</t>
+  </si>
+  <si>
+    <t>fin_M64</t>
+  </si>
+  <si>
+    <t>fin_M65</t>
+  </si>
+  <si>
+    <t>fin_M66</t>
+  </si>
+  <si>
+    <t>fin_M67</t>
+  </si>
+  <si>
+    <t>fin_M68</t>
+  </si>
+  <si>
+    <t>fin_M69</t>
+  </si>
+  <si>
+    <t>fin_M70</t>
+  </si>
+  <si>
+    <t>fin_M71</t>
+  </si>
+  <si>
+    <t>fin_M72</t>
+  </si>
+  <si>
+    <t>fin_M73</t>
+  </si>
+  <si>
+    <t>fin_M74</t>
+  </si>
+  <si>
+    <t>fin_M75</t>
+  </si>
+  <si>
+    <t>fin_M76</t>
+  </si>
+  <si>
+    <t>fin_M77</t>
+  </si>
+  <si>
+    <t>fin_M78</t>
+  </si>
+  <si>
+    <t>fin_M79</t>
+  </si>
+  <si>
+    <t>fin_M80</t>
+  </si>
+  <si>
+    <t>fin_M81</t>
+  </si>
+  <si>
+    <t>fin_M82</t>
+  </si>
+  <si>
+    <t>fin_M83</t>
+  </si>
+  <si>
+    <t>fin_M84</t>
+  </si>
+  <si>
+    <t>fin_M85</t>
+  </si>
+  <si>
+    <t>fin_M86</t>
+  </si>
+  <si>
+    <t>fin_M87</t>
+  </si>
+  <si>
+    <t>fin_M88</t>
+  </si>
+  <si>
+    <t>fin_M89</t>
+  </si>
+  <si>
+    <t>fin_M90</t>
+  </si>
+  <si>
+    <t>fin_M91</t>
+  </si>
+  <si>
+    <t>fin_M92</t>
+  </si>
+  <si>
+    <t>fin_M93</t>
+  </si>
+  <si>
+    <t>fin_M94</t>
+  </si>
+  <si>
+    <t>fin_M95</t>
+  </si>
+  <si>
+    <t>fin_M96</t>
+  </si>
+  <si>
+    <t>fin_M97</t>
+  </si>
+  <si>
+    <t>fin_M98</t>
+  </si>
+  <si>
+    <t>fin_M99</t>
+  </si>
+  <si>
+    <t>fin_M100</t>
+  </si>
+  <si>
+    <t>fin_W1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin_W2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fin_W3</t>
+  </si>
+  <si>
+    <t>fin_W4</t>
+  </si>
+  <si>
+    <t>fin_W5</t>
+  </si>
+  <si>
+    <t>fin_W6</t>
+  </si>
+  <si>
+    <t>fin_W7</t>
+  </si>
+  <si>
+    <t>fin_W8</t>
+  </si>
+  <si>
+    <t>fin_W9</t>
+  </si>
+  <si>
+    <t>fin_W10</t>
+  </si>
+  <si>
+    <t>fin_W11</t>
+  </si>
+  <si>
+    <t>fin_W12</t>
+  </si>
+  <si>
+    <t>fin_W13</t>
+  </si>
+  <si>
+    <t>fin_W14</t>
+  </si>
+  <si>
+    <t>fin_W15</t>
+  </si>
+  <si>
+    <t>fin_W16</t>
+  </si>
+  <si>
+    <t>fin_W17</t>
+  </si>
+  <si>
+    <t>fin_W18</t>
+  </si>
+  <si>
+    <t>fin_W19</t>
+  </si>
+  <si>
+    <t>fin_W20</t>
+  </si>
+  <si>
+    <t>fin_W21</t>
+  </si>
+  <si>
+    <t>fin_W22</t>
+  </si>
+  <si>
+    <t>fin_W23</t>
+  </si>
+  <si>
+    <t>fin_W24</t>
+  </si>
+  <si>
+    <t>fin_W25</t>
+  </si>
+  <si>
+    <t>fin_W26</t>
+  </si>
+  <si>
+    <t>fin_W27</t>
+  </si>
+  <si>
+    <t>fin_W28</t>
+  </si>
+  <si>
+    <t>fin_W29</t>
+  </si>
+  <si>
+    <t>fin_W30</t>
+  </si>
+  <si>
+    <t>fin_W31</t>
+  </si>
+  <si>
+    <t>fin_W32</t>
+  </si>
+  <si>
+    <t>fin_W33</t>
+  </si>
+  <si>
+    <t>fin_W34</t>
+  </si>
+  <si>
+    <t>fin_W35</t>
+  </si>
+  <si>
+    <t>fin_W36</t>
+  </si>
+  <si>
+    <t>fin_W37</t>
+  </si>
+  <si>
+    <t>fin_W38</t>
+  </si>
+  <si>
+    <t>fin_W39</t>
+  </si>
+  <si>
+    <t>fin_W40</t>
+  </si>
+  <si>
+    <t>fin_W41</t>
+  </si>
+  <si>
+    <t>fin_W42</t>
+  </si>
+  <si>
+    <t>fin_W43</t>
+  </si>
+  <si>
+    <t>fin_W44</t>
+  </si>
+  <si>
+    <t>fin_W45</t>
+  </si>
+  <si>
+    <t>fin_W46</t>
+  </si>
+  <si>
+    <t>fin_W47</t>
+  </si>
+  <si>
+    <t>fin_W48</t>
+  </si>
+  <si>
+    <t>fin_W49</t>
+  </si>
+  <si>
+    <t>fin_W50</t>
+  </si>
+  <si>
+    <t>fin_W51</t>
+  </si>
+  <si>
+    <t>fin_W52</t>
+  </si>
+  <si>
+    <t>fin_W53</t>
+  </si>
+  <si>
+    <t>fin_W54</t>
+  </si>
+  <si>
+    <t>fin_W55</t>
+  </si>
+  <si>
+    <t>fin_W56</t>
+  </si>
+  <si>
+    <t>fin_W57</t>
+  </si>
+  <si>
+    <t>fin_W58</t>
+  </si>
+  <si>
+    <t>fin_W59</t>
+  </si>
+  <si>
+    <t>fin_W60</t>
+  </si>
+  <si>
+    <t>fin_W61</t>
+  </si>
+  <si>
+    <t>fin_W62</t>
+  </si>
+  <si>
+    <t>fin_W63</t>
+  </si>
+  <si>
+    <t>fin_W64</t>
+  </si>
+  <si>
+    <t>fin_W65</t>
+  </si>
+  <si>
+    <t>fin_W66</t>
+  </si>
+  <si>
+    <t>fin_W67</t>
+  </si>
+  <si>
+    <t>fin_W68</t>
+  </si>
+  <si>
+    <t>fin_W69</t>
+  </si>
+  <si>
+    <t>fin_W70</t>
+  </si>
+  <si>
+    <t>fin_W71</t>
+  </si>
+  <si>
+    <t>fin_W72</t>
+  </si>
+  <si>
+    <t>fin_W73</t>
+  </si>
+  <si>
+    <t>fin_W74</t>
+  </si>
+  <si>
+    <t>fin_W75</t>
+  </si>
+  <si>
+    <t>fin_W76</t>
+  </si>
+  <si>
+    <t>fin_W77</t>
+  </si>
+  <si>
+    <t>fin_W78</t>
+  </si>
+  <si>
+    <t>fin_W79</t>
+  </si>
+  <si>
+    <t>fin_W80</t>
+  </si>
+  <si>
+    <t>fin_W81</t>
+  </si>
+  <si>
+    <t>fin_W82</t>
+  </si>
+  <si>
+    <t>fin_W83</t>
+  </si>
+  <si>
+    <t>fin_W84</t>
+  </si>
+  <si>
+    <t>fin_W85</t>
+  </si>
+  <si>
+    <t>fin_W86</t>
+  </si>
+  <si>
+    <t>fin_W87</t>
+  </si>
+  <si>
+    <t>fin_W88</t>
+  </si>
+  <si>
+    <t>fin_W89</t>
+  </si>
+  <si>
+    <t>fin_W90</t>
+  </si>
+  <si>
+    <t>fin_W91</t>
+  </si>
+  <si>
+    <t>fin_W92</t>
+  </si>
+  <si>
+    <t>fin_W93</t>
+  </si>
+  <si>
+    <t>fin_W94</t>
+  </si>
+  <si>
+    <t>fin_W95</t>
+  </si>
+  <si>
+    <t>fin_W96</t>
+  </si>
+  <si>
+    <t>fin_W97</t>
+  </si>
+  <si>
+    <t>fin_W98</t>
+  </si>
+  <si>
+    <t>fin_W99</t>
+  </si>
+  <si>
+    <t>fin_W100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +1719,14 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -567,7 +1783,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,26 +1808,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -621,6 +1828,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1211,1435 +2421,1292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7729E7-DFB8-4849-8A8B-D8E3576C1484}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
+      <c r="B13" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
+      <c r="B15" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
+      <c r="B17" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>16</v>
+      <c r="B19" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
+      <c r="B23" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
+      <c r="B25" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>24</v>
+      <c r="B27" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>26</v>
+      <c r="B29" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
+      <c r="B31" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>30</v>
+      <c r="B33" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
+      <c r="B35" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
+      <c r="B37" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
+      <c r="B39" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
+      <c r="B41" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
+      <c r="B43" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>42</v>
+      <c r="B45" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>44</v>
+      <c r="B47" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>46</v>
+      <c r="B49" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>48</v>
+      <c r="B51" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>50</v>
+      <c r="B53" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>52</v>
+      <c r="B55" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
+      <c r="B57" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>56</v>
+      <c r="B59" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>58</v>
+      <c r="B61" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>60</v>
+      <c r="B63" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>62</v>
+      <c r="B65" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>64</v>
+      <c r="B67" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>66</v>
+      <c r="B69" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>68</v>
+      <c r="B71" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>70</v>
+      <c r="B73" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>72</v>
+      <c r="B75" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>74</v>
+      <c r="B77" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
+      <c r="B79" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>78</v>
+      <c r="B81" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>80</v>
+      <c r="B83" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>82</v>
+      <c r="B85" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>84</v>
+      <c r="B87" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>86</v>
+      <c r="B89" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>88</v>
+      <c r="B91" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>90</v>
+      <c r="B93" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>92</v>
+      <c r="B95" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>94</v>
+      <c r="B97" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
+      <c r="B99" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2649,1448 +3716,1292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA452A4-F25C-466D-A5F8-144D07552BE9}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q12"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
+      <c r="B13" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
+      <c r="B15" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
+      <c r="B17" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>16</v>
+      <c r="B19" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
+      <c r="B23" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
+      <c r="B25" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>24</v>
+      <c r="B27" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>26</v>
+      <c r="B29" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
+      <c r="B31" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>30</v>
+      <c r="B33" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
+      <c r="B35" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
+      <c r="B37" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
+      <c r="B39" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
+      <c r="B41" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
+      <c r="B43" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>42</v>
+      <c r="B45" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>44</v>
+      <c r="B47" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>46</v>
+      <c r="B49" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>48</v>
+      <c r="B51" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>50</v>
+      <c r="B53" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>52</v>
+      <c r="B55" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
+      <c r="B57" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>56</v>
+      <c r="B59" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>58</v>
+      <c r="B61" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>60</v>
+      <c r="B63" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>62</v>
+      <c r="B65" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>64</v>
+      <c r="B67" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>66</v>
+      <c r="B69" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>68</v>
+      <c r="B71" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>70</v>
+      <c r="B73" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>72</v>
+      <c r="B75" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>74</v>
+      <c r="B77" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
+      <c r="B79" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>78</v>
+      <c r="B81" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>80</v>
+      <c r="B83" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>82</v>
+      <c r="B85" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>84</v>
+      <c r="B87" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>86</v>
+      <c r="B89" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>88</v>
+      <c r="B91" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>90</v>
+      <c r="B93" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>92</v>
+      <c r="B95" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>94</v>
+      <c r="B97" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
+      <c r="B99" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4100,1435 +5011,1292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A833-BC96-46FB-AD28-C9B05ABD08B5}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q11"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="9">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
+      <c r="B13" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="9">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
+      <c r="B15" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="9">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
+      <c r="B17" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>16</v>
+      <c r="B19" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
+      <c r="B23" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
+      <c r="B25" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>24</v>
+      <c r="B27" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>26</v>
+      <c r="B29" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
+      <c r="B31" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>30</v>
+      <c r="B33" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
+      <c r="B35" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
+      <c r="B37" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
+      <c r="B39" s="15" t="s">
+        <v>348</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
+      <c r="B41" s="15" t="s">
+        <v>350</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
+      <c r="B43" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>42</v>
+      <c r="B45" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>44</v>
+      <c r="B47" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>46</v>
+      <c r="B49" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>48</v>
+      <c r="B51" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>50</v>
+      <c r="B53" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>52</v>
+      <c r="B55" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
+      <c r="B57" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>56</v>
+      <c r="B59" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>58</v>
+      <c r="B61" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>60</v>
+      <c r="B63" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>62</v>
+      <c r="B65" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>375</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>64</v>
+      <c r="B67" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>66</v>
+      <c r="B69" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>68</v>
+      <c r="B71" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>70</v>
+      <c r="B73" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>72</v>
+      <c r="B75" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>385</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>74</v>
+      <c r="B77" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
+      <c r="B79" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>78</v>
+      <c r="B81" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>80</v>
+      <c r="B83" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>82</v>
+      <c r="B85" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>84</v>
+      <c r="B87" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>86</v>
+      <c r="B89" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>88</v>
+      <c r="B91" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>90</v>
+      <c r="B93" s="15" t="s">
+        <v>402</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>403</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>92</v>
+      <c r="B95" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>94</v>
+      <c r="B97" s="15" t="s">
+        <v>406</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
+      <c r="B99" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5538,1435 +6306,1292 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0D496-3BD6-4FBB-A165-F439C62BEF69}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
+      <c r="B13" s="15" t="s">
+        <v>422</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
+      <c r="B15" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
+      <c r="B17" s="15" t="s">
+        <v>426</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>16</v>
+      <c r="B19" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
+      <c r="B21" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
+      <c r="B23" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
+      <c r="B25" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>23</v>
+        <v>435</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>24</v>
+      <c r="B27" s="15" t="s">
+        <v>436</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>25</v>
+        <v>437</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>26</v>
+      <c r="B29" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>439</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
+      <c r="B31" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>30</v>
+      <c r="B33" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
+      <c r="B35" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>33</v>
+        <v>445</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
+      <c r="B37" s="15" t="s">
+        <v>446</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
+      <c r="B39" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
+      <c r="B41" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
+      <c r="B43" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>42</v>
+      <c r="B45" s="15" t="s">
+        <v>454</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>44</v>
+      <c r="B47" s="15" t="s">
+        <v>456</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>46</v>
+      <c r="B49" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>48</v>
+      <c r="B51" s="15" t="s">
+        <v>460</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>50</v>
+      <c r="B53" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>463</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>52</v>
+      <c r="B55" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>53</v>
+        <v>465</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
+      <c r="B57" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>467</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>56</v>
+      <c r="B59" s="15" t="s">
+        <v>468</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>58</v>
+      <c r="B61" s="15" t="s">
+        <v>470</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>60</v>
+      <c r="B63" s="15" t="s">
+        <v>472</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>473</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>62</v>
+      <c r="B65" s="15" t="s">
+        <v>474</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>64</v>
+      <c r="B67" s="15" t="s">
+        <v>476</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>477</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>66</v>
+      <c r="B69" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>479</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>68</v>
+      <c r="B71" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>70</v>
+      <c r="B73" s="15" t="s">
+        <v>482</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>71</v>
+        <v>483</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>72</v>
+      <c r="B75" s="15" t="s">
+        <v>484</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>485</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>74</v>
+      <c r="B77" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
+      <c r="B79" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>78</v>
+      <c r="B81" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>80</v>
+      <c r="B83" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>82</v>
+      <c r="B85" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>84</v>
+      <c r="B87" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>86</v>
+      <c r="B89" s="15" t="s">
+        <v>498</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>88</v>
+      <c r="B91" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>90</v>
+      <c r="B93" s="15" t="s">
+        <v>502</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>503</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>92</v>
+      <c r="B95" s="15" t="s">
+        <v>504</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>93</v>
+        <v>505</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>94</v>
+      <c r="B97" s="15" t="s">
+        <v>506</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
+      <c r="B99" s="15" t="s">
+        <v>508</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>97</v>
+        <v>509</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6976,24 +7601,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B631B135-50C6-4792-A2AB-6A2F685FB879}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -7003,7 +7628,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -7016,7 +7641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -7038,7 +7663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -7048,7 +7673,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -7064,7 +7689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -7080,7 +7705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -7096,7 +7721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -7112,7 +7737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -7122,7 +7747,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -7132,7 +7757,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -7142,7 +7767,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -7152,7 +7777,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -7162,7 +7787,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -7172,7 +7797,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -7182,7 +7807,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -7192,7 +7817,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -7202,7 +7827,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -7212,7 +7837,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -7222,7 +7847,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -7232,7 +7857,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -7242,7 +7867,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
@@ -7252,7 +7877,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
@@ -7262,7 +7887,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
@@ -7272,7 +7897,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
@@ -7282,7 +7907,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
@@ -7292,7 +7917,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
@@ -7302,7 +7927,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
@@ -7312,7 +7937,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
@@ -7322,7 +7947,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
@@ -7332,7 +7957,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -7342,7 +7967,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -7352,7 +7977,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -7362,7 +7987,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
@@ -7372,7 +7997,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
@@ -7382,7 +8007,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
@@ -7392,7 +8017,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
@@ -7402,7 +8027,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
@@ -7412,7 +8037,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
@@ -7422,7 +8047,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
@@ -7432,7 +8057,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
@@ -7442,7 +8067,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
@@ -7452,7 +8077,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
@@ -7462,7 +8087,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
@@ -7472,7 +8097,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
@@ -7482,7 +8107,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
@@ -7492,7 +8117,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
@@ -7502,7 +8127,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
@@ -7512,7 +8137,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
@@ -7522,7 +8147,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
@@ -7532,7 +8157,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
@@ -7542,7 +8167,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
@@ -7552,7 +8177,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
@@ -7562,7 +8187,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
@@ -7572,7 +8197,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
@@ -7582,7 +8207,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
@@ -7592,7 +8217,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
@@ -7602,7 +8227,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
@@ -7612,7 +8237,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
@@ -7622,7 +8247,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
@@ -7632,7 +8257,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
@@ -7642,7 +8267,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
@@ -7652,7 +8277,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
@@ -7662,7 +8287,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
@@ -7672,7 +8297,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
@@ -7682,7 +8307,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
@@ -7692,7 +8317,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
@@ -7702,7 +8327,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
@@ -7712,7 +8337,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
@@ -7722,7 +8347,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
@@ -7732,7 +8357,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
@@ -7742,7 +8367,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
@@ -7752,7 +8377,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
@@ -7762,7 +8387,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
@@ -7772,7 +8397,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
@@ -7782,7 +8407,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
@@ -7792,7 +8417,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
@@ -7802,7 +8427,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
@@ -7812,7 +8437,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
@@ -7822,7 +8447,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
@@ -7832,7 +8457,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
@@ -7842,7 +8467,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
@@ -7852,7 +8477,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
@@ -7862,7 +8487,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
@@ -7872,7 +8497,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
@@ -7882,7 +8507,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
@@ -7892,7 +8517,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
@@ -7902,7 +8527,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
@@ -7912,7 +8537,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
@@ -7922,7 +8547,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
@@ -7932,7 +8557,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
@@ -7942,7 +8567,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
@@ -7952,7 +8577,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
@@ -7962,7 +8587,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
@@ -7972,7 +8597,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
@@ -7982,7 +8607,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
@@ -7992,7 +8617,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
@@ -8002,7 +8627,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
@@ -8012,7 +8637,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
@@ -8022,7 +8647,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
@@ -8032,275 +8657,269 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static.xlsx
+++ b/static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b-pump/Library/Mobile Documents/com~apple~CloudDocs/VSCode/the1-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The1\the1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBFCA3-CFDE-0F4B-B5AC-E5EF695DE8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088608B-2152-407D-8C2D-6B47E8770C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="343">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -1057,615 +1057,112 @@
     <t>asp_W100</t>
   </si>
   <si>
-    <t>fin_M1</t>
+    <t>DAY1:6th</t>
+  </si>
+  <si>
+    <t>DAY1:5th</t>
+  </si>
+  <si>
+    <t>DAY1:4th</t>
+  </si>
+  <si>
+    <t>DAY1:3rd</t>
+  </si>
+  <si>
+    <t>DAY1:2nd</t>
+  </si>
+  <si>
+    <t>DAY1:1st</t>
+  </si>
+  <si>
+    <t>Ao YURIKUSA</t>
+  </si>
+  <si>
+    <t>Junta SEKIGUCHI</t>
+  </si>
+  <si>
+    <t>Satone YOSHIDA</t>
+  </si>
+  <si>
+    <t>Rei KAWAMATA</t>
+  </si>
+  <si>
+    <t>Daiki SANO</t>
+  </si>
+  <si>
+    <t>Kento YAMAGUCHI</t>
+  </si>
+  <si>
+    <t>Yusuke SUGIMOTO</t>
+  </si>
+  <si>
+    <t>Rei SUGIMOTO</t>
+  </si>
+  <si>
+    <t>Oren PRIHED</t>
+  </si>
+  <si>
+    <t>Yuji FUJIWAKI</t>
+  </si>
+  <si>
+    <t>Yufei PAN</t>
+  </si>
+  <si>
+    <t>Meichi NARASAKI</t>
+  </si>
+  <si>
+    <t>Dohyun LEE</t>
+  </si>
+  <si>
+    <t>Sorato ANRAKU</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fin_M2</t>
+    <t>DAY1:6th</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fin_M3</t>
-  </si>
-  <si>
-    <t>fin_M4</t>
-  </si>
-  <si>
-    <t>fin_M5</t>
-  </si>
-  <si>
-    <t>fin_M6</t>
-  </si>
-  <si>
-    <t>fin_M7</t>
-  </si>
-  <si>
-    <t>fin_M8</t>
-  </si>
-  <si>
-    <t>fin_M9</t>
-  </si>
-  <si>
-    <t>fin_M10</t>
-  </si>
-  <si>
-    <t>fin_M11</t>
-  </si>
-  <si>
-    <t>fin_M12</t>
-  </si>
-  <si>
-    <t>fin_M13</t>
-  </si>
-  <si>
-    <t>fin_M14</t>
-  </si>
-  <si>
-    <t>fin_M15</t>
-  </si>
-  <si>
-    <t>fin_M16</t>
-  </si>
-  <si>
-    <t>fin_M17</t>
-  </si>
-  <si>
-    <t>fin_M18</t>
-  </si>
-  <si>
-    <t>fin_M19</t>
-  </si>
-  <si>
-    <t>fin_M20</t>
-  </si>
-  <si>
-    <t>fin_M21</t>
-  </si>
-  <si>
-    <t>fin_M22</t>
-  </si>
-  <si>
-    <t>fin_M23</t>
-  </si>
-  <si>
-    <t>fin_M24</t>
-  </si>
-  <si>
-    <t>fin_M25</t>
-  </si>
-  <si>
-    <t>fin_M26</t>
-  </si>
-  <si>
-    <t>fin_M27</t>
-  </si>
-  <si>
-    <t>fin_M28</t>
-  </si>
-  <si>
-    <t>fin_M29</t>
-  </si>
-  <si>
-    <t>fin_M30</t>
-  </si>
-  <si>
-    <t>fin_M31</t>
-  </si>
-  <si>
-    <t>fin_M32</t>
-  </si>
-  <si>
-    <t>fin_M33</t>
-  </si>
-  <si>
-    <t>fin_M34</t>
-  </si>
-  <si>
-    <t>fin_M35</t>
-  </si>
-  <si>
-    <t>fin_M36</t>
-  </si>
-  <si>
-    <t>fin_M37</t>
-  </si>
-  <si>
-    <t>fin_M38</t>
-  </si>
-  <si>
-    <t>fin_M39</t>
-  </si>
-  <si>
-    <t>fin_M40</t>
-  </si>
-  <si>
-    <t>fin_M41</t>
-  </si>
-  <si>
-    <t>fin_M42</t>
-  </si>
-  <si>
-    <t>fin_M43</t>
-  </si>
-  <si>
-    <t>fin_M44</t>
-  </si>
-  <si>
-    <t>fin_M45</t>
-  </si>
-  <si>
-    <t>fin_M46</t>
-  </si>
-  <si>
-    <t>fin_M47</t>
-  </si>
-  <si>
-    <t>fin_M48</t>
-  </si>
-  <si>
-    <t>fin_M49</t>
-  </si>
-  <si>
-    <t>fin_M50</t>
-  </si>
-  <si>
-    <t>fin_M51</t>
-  </si>
-  <si>
-    <t>fin_M52</t>
-  </si>
-  <si>
-    <t>fin_M53</t>
-  </si>
-  <si>
-    <t>fin_M54</t>
-  </si>
-  <si>
-    <t>fin_M55</t>
-  </si>
-  <si>
-    <t>fin_M56</t>
-  </si>
-  <si>
-    <t>fin_M57</t>
-  </si>
-  <si>
-    <t>fin_M58</t>
-  </si>
-  <si>
-    <t>fin_M59</t>
-  </si>
-  <si>
-    <t>fin_M60</t>
-  </si>
-  <si>
-    <t>fin_M61</t>
-  </si>
-  <si>
-    <t>fin_M62</t>
-  </si>
-  <si>
-    <t>fin_M63</t>
-  </si>
-  <si>
-    <t>fin_M64</t>
-  </si>
-  <si>
-    <t>fin_M65</t>
-  </si>
-  <si>
-    <t>fin_M66</t>
-  </si>
-  <si>
-    <t>fin_M67</t>
-  </si>
-  <si>
-    <t>fin_M68</t>
-  </si>
-  <si>
-    <t>fin_M69</t>
-  </si>
-  <si>
-    <t>fin_M70</t>
-  </si>
-  <si>
-    <t>fin_M71</t>
-  </si>
-  <si>
-    <t>fin_M72</t>
-  </si>
-  <si>
-    <t>fin_M73</t>
-  </si>
-  <si>
-    <t>fin_M74</t>
-  </si>
-  <si>
-    <t>fin_M75</t>
-  </si>
-  <si>
-    <t>fin_M76</t>
-  </si>
-  <si>
-    <t>fin_M77</t>
-  </si>
-  <si>
-    <t>fin_M78</t>
-  </si>
-  <si>
-    <t>fin_M79</t>
-  </si>
-  <si>
-    <t>fin_M80</t>
-  </si>
-  <si>
-    <t>fin_M81</t>
-  </si>
-  <si>
-    <t>fin_M82</t>
-  </si>
-  <si>
-    <t>fin_M83</t>
-  </si>
-  <si>
-    <t>fin_M84</t>
-  </si>
-  <si>
-    <t>fin_M85</t>
-  </si>
-  <si>
-    <t>fin_M86</t>
-  </si>
-  <si>
-    <t>fin_M87</t>
-  </si>
-  <si>
-    <t>fin_M88</t>
-  </si>
-  <si>
-    <t>fin_M89</t>
-  </si>
-  <si>
-    <t>fin_M90</t>
-  </si>
-  <si>
-    <t>fin_M91</t>
-  </si>
-  <si>
-    <t>fin_M92</t>
-  </si>
-  <si>
-    <t>fin_M93</t>
-  </si>
-  <si>
-    <t>fin_M94</t>
-  </si>
-  <si>
-    <t>fin_M95</t>
-  </si>
-  <si>
-    <t>fin_M96</t>
-  </si>
-  <si>
-    <t>fin_M97</t>
-  </si>
-  <si>
-    <t>fin_M98</t>
-  </si>
-  <si>
-    <t>fin_M99</t>
-  </si>
-  <si>
-    <t>fin_M100</t>
-  </si>
-  <si>
-    <t>fin_W1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fin_W2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fin_W3</t>
-  </si>
-  <si>
-    <t>fin_W4</t>
-  </si>
-  <si>
-    <t>fin_W5</t>
-  </si>
-  <si>
-    <t>fin_W6</t>
-  </si>
-  <si>
-    <t>fin_W7</t>
-  </si>
-  <si>
-    <t>fin_W8</t>
-  </si>
-  <si>
-    <t>fin_W9</t>
-  </si>
-  <si>
-    <t>fin_W10</t>
-  </si>
-  <si>
-    <t>fin_W11</t>
-  </si>
-  <si>
-    <t>fin_W12</t>
-  </si>
-  <si>
-    <t>fin_W13</t>
-  </si>
-  <si>
-    <t>fin_W14</t>
-  </si>
-  <si>
-    <t>fin_W15</t>
-  </si>
-  <si>
-    <t>fin_W16</t>
-  </si>
-  <si>
-    <t>fin_W17</t>
-  </si>
-  <si>
-    <t>fin_W18</t>
-  </si>
-  <si>
-    <t>fin_W19</t>
-  </si>
-  <si>
-    <t>fin_W20</t>
-  </si>
-  <si>
-    <t>fin_W21</t>
-  </si>
-  <si>
-    <t>fin_W22</t>
-  </si>
-  <si>
-    <t>fin_W23</t>
-  </si>
-  <si>
-    <t>fin_W24</t>
-  </si>
-  <si>
-    <t>fin_W25</t>
-  </si>
-  <si>
-    <t>fin_W26</t>
-  </si>
-  <si>
-    <t>fin_W27</t>
-  </si>
-  <si>
-    <t>fin_W28</t>
-  </si>
-  <si>
-    <t>fin_W29</t>
-  </si>
-  <si>
-    <t>fin_W30</t>
-  </si>
-  <si>
-    <t>fin_W31</t>
-  </si>
-  <si>
-    <t>fin_W32</t>
-  </si>
-  <si>
-    <t>fin_W33</t>
-  </si>
-  <si>
-    <t>fin_W34</t>
-  </si>
-  <si>
-    <t>fin_W35</t>
-  </si>
-  <si>
-    <t>fin_W36</t>
-  </si>
-  <si>
-    <t>fin_W37</t>
-  </si>
-  <si>
-    <t>fin_W38</t>
-  </si>
-  <si>
-    <t>fin_W39</t>
-  </si>
-  <si>
-    <t>fin_W40</t>
-  </si>
-  <si>
-    <t>fin_W41</t>
-  </si>
-  <si>
-    <t>fin_W42</t>
-  </si>
-  <si>
-    <t>fin_W43</t>
-  </si>
-  <si>
-    <t>fin_W44</t>
-  </si>
-  <si>
-    <t>fin_W45</t>
-  </si>
-  <si>
-    <t>fin_W46</t>
-  </si>
-  <si>
-    <t>fin_W47</t>
-  </si>
-  <si>
-    <t>fin_W48</t>
-  </si>
-  <si>
-    <t>fin_W49</t>
-  </si>
-  <si>
-    <t>fin_W50</t>
-  </si>
-  <si>
-    <t>fin_W51</t>
-  </si>
-  <si>
-    <t>fin_W52</t>
-  </si>
-  <si>
-    <t>fin_W53</t>
-  </si>
-  <si>
-    <t>fin_W54</t>
-  </si>
-  <si>
-    <t>fin_W55</t>
-  </si>
-  <si>
-    <t>fin_W56</t>
-  </si>
-  <si>
-    <t>fin_W57</t>
-  </si>
-  <si>
-    <t>fin_W58</t>
-  </si>
-  <si>
-    <t>fin_W59</t>
-  </si>
-  <si>
-    <t>fin_W60</t>
-  </si>
-  <si>
-    <t>fin_W61</t>
-  </si>
-  <si>
-    <t>fin_W62</t>
-  </si>
-  <si>
-    <t>fin_W63</t>
-  </si>
-  <si>
-    <t>fin_W64</t>
-  </si>
-  <si>
-    <t>fin_W65</t>
-  </si>
-  <si>
-    <t>fin_W66</t>
-  </si>
-  <si>
-    <t>fin_W67</t>
-  </si>
-  <si>
-    <t>fin_W68</t>
-  </si>
-  <si>
-    <t>fin_W69</t>
-  </si>
-  <si>
-    <t>fin_W70</t>
-  </si>
-  <si>
-    <t>fin_W71</t>
-  </si>
-  <si>
-    <t>fin_W72</t>
-  </si>
-  <si>
-    <t>fin_W73</t>
-  </si>
-  <si>
-    <t>fin_W74</t>
-  </si>
-  <si>
-    <t>fin_W75</t>
-  </si>
-  <si>
-    <t>fin_W76</t>
-  </si>
-  <si>
-    <t>fin_W77</t>
-  </si>
-  <si>
-    <t>fin_W78</t>
-  </si>
-  <si>
-    <t>fin_W79</t>
-  </si>
-  <si>
-    <t>fin_W80</t>
-  </si>
-  <si>
-    <t>fin_W81</t>
-  </si>
-  <si>
-    <t>fin_W82</t>
-  </si>
-  <si>
-    <t>fin_W83</t>
-  </si>
-  <si>
-    <t>fin_W84</t>
-  </si>
-  <si>
-    <t>fin_W85</t>
-  </si>
-  <si>
-    <t>fin_W86</t>
-  </si>
-  <si>
-    <t>fin_W87</t>
-  </si>
-  <si>
-    <t>fin_W88</t>
-  </si>
-  <si>
-    <t>fin_W89</t>
-  </si>
-  <si>
-    <t>fin_W90</t>
-  </si>
-  <si>
-    <t>fin_W91</t>
-  </si>
-  <si>
-    <t>fin_W92</t>
-  </si>
-  <si>
-    <t>fin_W93</t>
-  </si>
-  <si>
-    <t>fin_W94</t>
-  </si>
-  <si>
-    <t>fin_W95</t>
-  </si>
-  <si>
-    <t>fin_W96</t>
-  </si>
-  <si>
-    <t>fin_W97</t>
-  </si>
-  <si>
-    <t>fin_W98</t>
-  </si>
-  <si>
-    <t>fin_W99</t>
-  </si>
-  <si>
-    <t>fin_W100</t>
+    <t>Natsumi ODA</t>
+  </si>
+  <si>
+    <t>Ren KOYAMATSU</t>
+  </si>
+  <si>
+    <t>Nanako KURA</t>
+  </si>
+  <si>
+    <t>Momoka KANEKO</t>
+  </si>
+  <si>
+    <t>Miku ISHII</t>
+  </si>
+  <si>
+    <t>Yui SUEZAWA</t>
+  </si>
+  <si>
+    <t>Manami YAMA</t>
+  </si>
+  <si>
+    <t>Mashiro KUZUU</t>
+  </si>
+  <si>
+    <t>Futaba ITO</t>
+  </si>
+  <si>
+    <t>Melody SEKIKAWA</t>
+  </si>
+  <si>
+    <t>Mao NAKAMURA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2423,22 +1920,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7729E7-DFB8-4849-8A8B-D8E3576C1484}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -2448,7 +1945,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -2458,7 +1955,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -2471,7 +1968,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -2481,7 +1978,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -2492,7 +1989,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -2503,7 +2000,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -2514,7 +2011,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -2524,7 +2021,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -2534,7 +2031,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -2544,7 +2041,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -2554,7 +2051,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -2564,7 +2061,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -2574,7 +2071,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -2584,7 +2081,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -2594,7 +2091,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -2604,7 +2101,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -2614,7 +2111,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -2624,7 +2121,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -2634,7 +2131,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -2644,7 +2141,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -2654,7 +2151,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
@@ -2664,7 +2161,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
@@ -2674,7 +2171,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
@@ -2684,7 +2181,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
@@ -2694,7 +2191,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
@@ -2704,7 +2201,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
@@ -2714,7 +2211,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
@@ -2724,7 +2221,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
@@ -2734,7 +2231,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
@@ -2744,7 +2241,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -2754,7 +2251,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -2764,7 +2261,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -2774,7 +2271,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
@@ -2784,7 +2281,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
@@ -2794,7 +2291,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
@@ -2804,7 +2301,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
@@ -2814,7 +2311,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
@@ -2824,7 +2321,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
@@ -2834,7 +2331,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
@@ -2844,7 +2341,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
@@ -2854,7 +2351,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
@@ -2864,7 +2361,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
@@ -2874,7 +2371,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
@@ -2884,7 +2381,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
@@ -2894,7 +2391,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
@@ -2904,7 +2401,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
@@ -2914,7 +2411,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
@@ -2924,7 +2421,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
@@ -2934,7 +2431,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
@@ -2944,7 +2441,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
@@ -2954,7 +2451,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
@@ -2964,7 +2461,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
@@ -2974,7 +2471,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
@@ -2984,7 +2481,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
@@ -2994,7 +2491,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
@@ -3004,7 +2501,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
@@ -3014,7 +2511,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
@@ -3024,7 +2521,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
@@ -3034,7 +2531,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
@@ -3044,7 +2541,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
@@ -3054,7 +2551,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
@@ -3064,7 +2561,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
@@ -3074,7 +2571,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
@@ -3084,7 +2581,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
@@ -3094,7 +2591,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
@@ -3104,7 +2601,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
@@ -3114,7 +2611,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
@@ -3124,7 +2621,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
@@ -3134,7 +2631,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
@@ -3144,7 +2641,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
@@ -3154,7 +2651,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
@@ -3164,7 +2661,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
@@ -3174,7 +2671,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
@@ -3184,7 +2681,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
@@ -3194,7 +2691,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
@@ -3204,7 +2701,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
@@ -3214,7 +2711,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
@@ -3224,7 +2721,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
@@ -3234,7 +2731,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
@@ -3244,7 +2741,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
@@ -3254,7 +2751,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
@@ -3264,7 +2761,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
@@ -3274,7 +2771,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
@@ -3284,7 +2781,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
@@ -3294,7 +2791,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
@@ -3304,7 +2801,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
@@ -3314,7 +2811,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
@@ -3324,7 +2821,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
@@ -3334,7 +2831,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
@@ -3344,7 +2841,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
@@ -3354,7 +2851,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
@@ -3364,7 +2861,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
@@ -3374,7 +2871,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
@@ -3384,7 +2881,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
@@ -3394,7 +2891,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
@@ -3404,7 +2901,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
@@ -3414,7 +2911,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
@@ -3424,7 +2921,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
@@ -3434,7 +2931,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
@@ -3444,265 +2941,265 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -3722,18 +3219,18 @@
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -3743,7 +3240,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -3753,7 +3250,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -3766,7 +3263,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -3776,7 +3273,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -3787,7 +3284,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -3798,7 +3295,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -3809,7 +3306,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -3819,7 +3316,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -3829,7 +3326,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -3839,7 +3336,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -3849,7 +3346,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -3859,7 +3356,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -3869,7 +3366,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -3879,7 +3376,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -3889,7 +3386,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -3899,7 +3396,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -3909,7 +3406,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -3919,7 +3416,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -3929,7 +3426,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -3939,7 +3436,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -3949,7 +3446,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
@@ -3959,7 +3456,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
@@ -3969,7 +3466,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
@@ -3979,7 +3476,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
@@ -3989,7 +3486,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
@@ -3999,7 +3496,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
@@ -4009,7 +3506,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
@@ -4019,7 +3516,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
@@ -4029,7 +3526,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
@@ -4039,7 +3536,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -4049,7 +3546,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -4059,7 +3556,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -4069,7 +3566,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
@@ -4079,7 +3576,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
@@ -4089,7 +3586,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
@@ -4099,7 +3596,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
@@ -4109,7 +3606,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
@@ -4119,7 +3616,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
@@ -4129,7 +3626,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
@@ -4139,7 +3636,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
@@ -4149,7 +3646,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
@@ -4159,7 +3656,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
@@ -4169,7 +3666,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
@@ -4179,7 +3676,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
@@ -4189,7 +3686,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
@@ -4199,7 +3696,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
@@ -4209,7 +3706,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
@@ -4219,7 +3716,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
@@ -4229,7 +3726,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
@@ -4239,7 +3736,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
@@ -4249,7 +3746,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
@@ -4259,7 +3756,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
@@ -4269,7 +3766,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
@@ -4279,7 +3776,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
@@ -4289,7 +3786,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
@@ -4299,7 +3796,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
@@ -4309,7 +3806,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
@@ -4319,7 +3816,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
@@ -4329,7 +3826,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
@@ -4339,7 +3836,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
@@ -4349,7 +3846,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
@@ -4359,7 +3856,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
@@ -4369,7 +3866,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
@@ -4379,7 +3876,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
@@ -4389,7 +3886,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
@@ -4399,7 +3896,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
@@ -4409,7 +3906,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
@@ -4419,7 +3916,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
@@ -4429,7 +3926,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
@@ -4439,7 +3936,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
@@ -4449,7 +3946,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
@@ -4459,7 +3956,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
@@ -4469,7 +3966,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
@@ -4479,7 +3976,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
@@ -4489,7 +3986,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
@@ -4499,7 +3996,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
@@ -4509,7 +4006,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
@@ -4519,7 +4016,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
@@ -4529,7 +4026,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
@@ -4539,7 +4036,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
@@ -4549,7 +4046,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
@@ -4559,7 +4056,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
@@ -4569,7 +4066,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
@@ -4579,7 +4076,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
@@ -4589,7 +4086,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
@@ -4599,7 +4096,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
@@ -4609,7 +4106,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
@@ -4619,7 +4116,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
@@ -4629,7 +4126,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
@@ -4639,7 +4136,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
@@ -4649,7 +4146,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
@@ -4659,7 +4156,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
@@ -4669,7 +4166,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
@@ -4679,7 +4176,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
@@ -4689,7 +4186,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
@@ -4699,7 +4196,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
@@ -4709,7 +4206,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
@@ -4719,7 +4216,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
@@ -4729,7 +4226,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
@@ -4739,265 +4236,265 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5013,31 +4510,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A833-BC96-46FB-AD28-C9B05ABD08B5}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -5047,7 +4544,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -5060,7 +4557,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -5070,7 +4567,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -5081,7 +4578,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -5092,7 +4589,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -5103,7 +4600,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -5113,7 +4610,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -5123,7 +4620,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -5134,7 +4631,7 @@
       <c r="D10" s="9"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -5144,7 +4641,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -5154,7 +4651,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -5164,7 +4661,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -5174,7 +4671,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -5184,7 +4681,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -5194,7 +4691,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -5204,7 +4701,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -5214,7 +4711,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -5224,7 +4721,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -5234,7 +4731,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -5244,1055 +4741,1055 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6308,47 +5805,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0D496-3BD6-4FBB-A165-F439C62BEF69}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6356,1238 +5853,1238 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>427</v>
+        <v>330</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>439</v>
+        <v>330</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>451</v>
+        <v>330</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>454</v>
+        <v>330</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>455</v>
+        <v>330</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>457</v>
+        <v>330</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>459</v>
+        <v>330</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>461</v>
+        <v>330</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>462</v>
+        <v>330</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>464</v>
+        <v>330</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>465</v>
+        <v>330</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>467</v>
+        <v>330</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>468</v>
+        <v>330</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>469</v>
+        <v>330</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>471</v>
+        <v>330</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>474</v>
+        <v>330</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>475</v>
+        <v>330</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>476</v>
+        <v>330</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>477</v>
+        <v>330</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>481</v>
+        <v>330</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>482</v>
+        <v>330</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>483</v>
+        <v>330</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>484</v>
+        <v>330</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>486</v>
+        <v>330</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>487</v>
+        <v>330</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>488</v>
+        <v>330</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>489</v>
+        <v>330</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>491</v>
+        <v>330</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>492</v>
+        <v>330</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>493</v>
+        <v>330</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>495</v>
+        <v>330</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>496</v>
+        <v>330</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>497</v>
+        <v>330</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>501</v>
+        <v>330</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>502</v>
+        <v>330</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>506</v>
+        <v>330</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>507</v>
+        <v>330</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>508</v>
+        <v>330</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>509</v>
+        <v>330</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -7607,18 +7104,18 @@
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -7628,7 +7125,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>2</v>
       </c>
@@ -7641,7 +7138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -7663,7 +7160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -7673,7 +7170,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -7689,7 +7186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -7705,7 +7202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -7721,7 +7218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>8</v>
       </c>
@@ -7737,7 +7234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -7747,7 +7244,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -7757,7 +7254,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -7767,7 +7264,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -7777,7 +7274,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -7787,7 +7284,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>14</v>
       </c>
@@ -7797,7 +7294,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>15</v>
       </c>
@@ -7807,7 +7304,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>16</v>
       </c>
@@ -7817,7 +7314,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>17</v>
       </c>
@@ -7827,7 +7324,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>18</v>
       </c>
@@ -7837,7 +7334,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>19</v>
       </c>
@@ -7847,7 +7344,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -7857,7 +7354,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>21</v>
       </c>
@@ -7867,7 +7364,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>22</v>
       </c>
@@ -7877,7 +7374,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>23</v>
       </c>
@@ -7887,7 +7384,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>24</v>
       </c>
@@ -7897,7 +7394,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>25</v>
       </c>
@@ -7907,7 +7404,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>26</v>
       </c>
@@ -7917,7 +7414,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>27</v>
       </c>
@@ -7927,7 +7424,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>28</v>
       </c>
@@ -7937,7 +7434,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>29</v>
       </c>
@@ -7947,7 +7444,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>30</v>
       </c>
@@ -7957,7 +7454,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -7967,7 +7464,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -7977,7 +7474,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -7987,7 +7484,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>34</v>
       </c>
@@ -7997,7 +7494,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>35</v>
       </c>
@@ -8007,7 +7504,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>36</v>
       </c>
@@ -8017,7 +7514,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>37</v>
       </c>
@@ -8027,7 +7524,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>38</v>
       </c>
@@ -8037,7 +7534,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>39</v>
       </c>
@@ -8047,7 +7544,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>40</v>
       </c>
@@ -8057,7 +7554,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>41</v>
       </c>
@@ -8067,7 +7564,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>42</v>
       </c>
@@ -8077,7 +7574,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>43</v>
       </c>
@@ -8087,7 +7584,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>44</v>
       </c>
@@ -8097,7 +7594,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45</v>
       </c>
@@ -8107,7 +7604,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>46</v>
       </c>
@@ -8117,7 +7614,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>47</v>
       </c>
@@ -8127,7 +7624,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>48</v>
       </c>
@@ -8137,7 +7634,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>49</v>
       </c>
@@ -8147,7 +7644,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>50</v>
       </c>
@@ -8157,7 +7654,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>51</v>
       </c>
@@ -8167,7 +7664,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>52</v>
       </c>
@@ -8177,7 +7674,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>53</v>
       </c>
@@ -8187,7 +7684,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>54</v>
       </c>
@@ -8197,7 +7694,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>55</v>
       </c>
@@ -8207,7 +7704,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>56</v>
       </c>
@@ -8217,7 +7714,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>57</v>
       </c>
@@ -8227,7 +7724,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>58</v>
       </c>
@@ -8237,7 +7734,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>59</v>
       </c>
@@ -8247,7 +7744,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>60</v>
       </c>
@@ -8257,7 +7754,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>61</v>
       </c>
@@ -8267,7 +7764,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>62</v>
       </c>
@@ -8277,7 +7774,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>63</v>
       </c>
@@ -8287,7 +7784,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>64</v>
       </c>
@@ -8297,7 +7794,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>65</v>
       </c>
@@ -8307,7 +7804,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>66</v>
       </c>
@@ -8317,7 +7814,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>67</v>
       </c>
@@ -8327,7 +7824,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>68</v>
       </c>
@@ -8337,7 +7834,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>69</v>
       </c>
@@ -8347,7 +7844,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>70</v>
       </c>
@@ -8357,7 +7854,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>71</v>
       </c>
@@ -8367,7 +7864,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>72</v>
       </c>
@@ -8377,7 +7874,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>73</v>
       </c>
@@ -8387,7 +7884,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>74</v>
       </c>
@@ -8397,7 +7894,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>75</v>
       </c>
@@ -8407,7 +7904,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>76</v>
       </c>
@@ -8417,7 +7914,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>77</v>
       </c>
@@ -8427,7 +7924,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>78</v>
       </c>
@@ -8437,7 +7934,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>79</v>
       </c>
@@ -8447,7 +7944,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>80</v>
       </c>
@@ -8457,7 +7954,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>81</v>
       </c>
@@ -8467,7 +7964,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>82</v>
       </c>
@@ -8477,7 +7974,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>83</v>
       </c>
@@ -8487,7 +7984,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>84</v>
       </c>
@@ -8497,7 +7994,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>85</v>
       </c>
@@ -8507,7 +8004,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>86</v>
       </c>
@@ -8517,7 +8014,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>87</v>
       </c>
@@ -8527,7 +8024,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>88</v>
       </c>
@@ -8537,7 +8034,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>89</v>
       </c>
@@ -8547,7 +8044,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>90</v>
       </c>
@@ -8557,7 +8054,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>91</v>
       </c>
@@ -8567,7 +8064,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>92</v>
       </c>
@@ -8577,7 +8074,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>93</v>
       </c>
@@ -8587,7 +8084,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>94</v>
       </c>
@@ -8597,7 +8094,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>95</v>
       </c>
@@ -8607,7 +8104,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>96</v>
       </c>
@@ -8617,7 +8114,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
         <v>97</v>
       </c>
@@ -8627,7 +8124,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
         <v>98</v>
       </c>
@@ -8637,7 +8134,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
         <v>99</v>
       </c>
@@ -8647,7 +8144,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
         <v>100</v>
       </c>
@@ -8657,265 +8154,265 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiyo\Desktop\python\The1\the1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088608B-2152-407D-8C2D-6B47E8770C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E07064-8739-4F4F-B388-5FF292C43C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
@@ -5805,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0D496-3BD6-4FBB-A165-F439C62BEF69}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b-pump/Library/Mobile Documents/com~apple~CloudDocs/VSCode/the1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED04928-3596-1940-BC3A-2EA3935BEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5821C-BC27-1646-9DBB-57B0E6914FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1140" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="5000" yWindow="1140" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,9 +1378,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7155,7 +7152,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7180,17 +7177,17 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -7203,17 +7200,17 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7224,10 +7221,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C6" s="9"/>
@@ -7235,7 +7232,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -7246,17 +7243,17 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -7266,10 +7263,10 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="11"/>
@@ -8115,17 +8112,17 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -8138,17 +8135,17 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -8159,10 +8156,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C6" s="9"/>
@@ -8170,7 +8167,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -8181,17 +8178,17 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -8201,10 +8198,10 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="11"/>
@@ -9049,17 +9046,17 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -9072,17 +9069,17 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -9093,10 +9090,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C6" s="9"/>
@@ -9104,7 +9101,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -9115,17 +9112,17 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -9135,10 +9132,10 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="11"/>
@@ -9959,7 +9956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89611715-D50E-984E-81C6-FC269ED5447B}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -9985,17 +9982,17 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10008,17 +10005,17 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -10029,10 +10026,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C6" s="9"/>
@@ -10040,7 +10037,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -10051,17 +10048,17 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>350</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10071,10 +10068,10 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C10" s="11"/>
@@ -10894,7 +10891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B631B135-50C6-4792-A2AB-6A2F685FB879}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>

--- a/static.xlsx
+++ b/static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The1/the1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D441482B-3CEB-405A-AC2C-EB8828C5FC7C}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C764C7E9-4813-4615-B5F8-0B9CB5A8DC3E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="238">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -838,6 +838,13 @@
   </si>
   <si>
     <t>Chihiro SAITO</t>
+  </si>
+  <si>
+    <t>Hayato NAKAMURA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sarah L.</t>
   </si>
 </sst>
 </file>
@@ -1297,6 +1304,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1616,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7729E7-DFB8-4849-8A8B-D8E3576C1484}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2911,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA452A4-F25C-466D-A5F8-144D07552BE9}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6747,7 +6758,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6765,8 +6776,8 @@
       <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>143</v>
+      <c r="B1" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -6776,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6785,8 +6796,8 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>145</v>
+      <c r="B3" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6799,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -6808,8 +6819,8 @@
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>147</v>
+      <c r="B5" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -6819,8 +6830,8 @@
       <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
+      <c r="B6" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6830,8 +6841,8 @@
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>149</v>
+      <c r="B7" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -6842,7 +6853,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6851,9 +6862,7 @@
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
@@ -6861,9 +6870,7 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>
@@ -7681,8 +7688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F249C92-41C2-F14B-B8D5-8D19FF0EC455}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7700,8 +7707,8 @@
       <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>143</v>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -7711,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7720,8 +7727,8 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>145</v>
+      <c r="B3" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7734,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -7744,7 +7751,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7754,8 +7761,8 @@
       <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
+      <c r="B6" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7765,8 +7772,8 @@
       <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>149</v>
+      <c r="B7" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -7777,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7786,9 +7793,7 @@
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
@@ -7796,9 +7801,7 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The1/the1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C764C7E9-4813-4615-B5F8-0B9CB5A8DC3E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408B5E91-D6F4-49BD-860B-A2CC630D1A97}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="238">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -6757,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A19FFE-657A-FB46-AD22-B5337D725FAA}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6862,7 +6862,9 @@
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
@@ -6870,7 +6872,9 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>
@@ -7688,8 +7692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F249C92-41C2-F14B-B8D5-8D19FF0EC455}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7793,7 +7797,9 @@
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
@@ -7801,7 +7807,9 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
     </row>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The1/the1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408B5E91-D6F4-49BD-860B-A2CC630D1A97}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBC4779-6242-45E6-AB07-3797EC286EC0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="231">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -457,24 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAY1:6th</t>
-  </si>
-  <si>
-    <t>DAY1:5th</t>
-  </si>
-  <si>
-    <t>DAY1:4th</t>
-  </si>
-  <si>
-    <t>DAY1:3rd</t>
-  </si>
-  <si>
-    <t>DAY1:2nd</t>
-  </si>
-  <si>
-    <t>DAY1:1st</t>
-  </si>
-  <si>
     <t>Ao YURIKUSA</t>
   </si>
   <si>
@@ -518,10 +500,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DAY1:6th</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1647,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -1657,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1667,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1680,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -1690,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1701,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1712,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -1723,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1733,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1743,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -1753,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1763,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1773,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -1783,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1793,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1803,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -1813,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1823,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1833,7 +1811,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1843,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1853,7 +1831,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1863,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1873,7 +1851,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1883,7 +1861,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1893,7 +1871,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1903,7 +1881,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1913,7 +1891,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1923,7 +1901,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1933,7 +1911,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1943,7 +1921,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1953,7 +1931,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1963,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1973,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1983,7 +1961,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1993,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2003,7 +1981,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2013,7 +1991,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2023,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2033,7 +2011,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2043,7 +2021,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2053,7 +2031,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2063,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2073,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2083,7 +2061,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2093,7 +2071,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -2103,7 +2081,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -2113,7 +2091,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2123,7 +2101,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2133,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2143,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2153,7 +2131,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2163,7 +2141,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2173,7 +2151,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2183,7 +2161,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2193,7 +2171,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2203,7 +2181,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2213,7 +2191,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2223,7 +2201,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2233,7 +2211,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2243,7 +2221,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2253,7 +2231,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -2263,7 +2241,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2273,7 +2251,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2283,7 +2261,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2293,7 +2271,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2303,7 +2281,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2313,7 +2291,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2323,7 +2301,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2333,7 +2311,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2343,7 +2321,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2353,7 +2331,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2363,7 +2341,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2373,7 +2351,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2383,7 +2361,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2393,7 +2371,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2403,7 +2381,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2413,7 +2391,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2423,7 +2401,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2433,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2443,7 +2421,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2453,7 +2431,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2463,7 +2441,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2473,7 +2451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2483,7 +2461,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2493,7 +2471,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2503,7 +2481,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2513,7 +2491,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2523,7 +2501,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2533,7 +2511,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2543,7 +2521,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2553,7 +2531,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2563,7 +2541,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2573,7 +2551,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2583,7 +2561,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2593,7 +2571,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2603,7 +2581,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2613,7 +2591,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2623,7 +2601,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2633,7 +2611,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2643,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2942,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -2952,7 +2930,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2962,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2975,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -2985,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2996,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3007,7 +2985,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -3018,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3028,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3038,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -3048,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3058,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3068,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -3078,7 +3056,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3088,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3098,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -3108,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3118,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3128,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3138,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3148,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3158,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -3168,7 +3146,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3178,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -3188,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -3198,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3208,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3218,7 +3196,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3228,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3238,7 +3216,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3248,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3258,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3268,7 +3246,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3278,7 +3256,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3288,7 +3266,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3298,7 +3276,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3308,7 +3286,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3318,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3328,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3338,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -3348,7 +3326,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3358,7 +3336,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3368,7 +3346,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -3378,7 +3356,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -3388,7 +3366,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3398,7 +3376,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3408,7 +3386,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3418,7 +3396,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3428,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -3438,7 +3416,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3448,7 +3426,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -3458,7 +3436,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -3468,7 +3446,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -3478,7 +3456,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -3488,7 +3466,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -3498,7 +3476,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -3508,7 +3486,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3518,7 +3496,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -3528,7 +3506,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -3538,7 +3516,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -3548,7 +3526,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -3558,7 +3536,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3568,7 +3546,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3578,7 +3556,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -3588,7 +3566,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3598,7 +3576,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -3608,7 +3586,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3618,7 +3596,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3628,7 +3606,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -3638,7 +3616,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -3648,7 +3626,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -3658,7 +3636,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3668,7 +3646,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -3678,7 +3656,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3688,7 +3666,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -4168,7 +4146,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4186,8 +4164,8 @@
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>131</v>
+      <c r="B1" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -4196,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4205,8 +4183,8 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>112</v>
+      <c r="B3" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4219,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -4228,8 +4206,8 @@
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>114</v>
+      <c r="B5" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4240,7 +4218,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4251,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -4262,7 +4240,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4272,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4282,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -4293,7 +4271,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4303,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4313,7 +4291,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -4323,7 +4301,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4333,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4343,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -4353,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4363,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4373,7 +4351,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4383,7 +4361,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4393,7 +4371,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4403,7 +4381,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4413,7 +4391,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4423,7 +4401,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4433,7 +4411,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4443,7 +4421,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4453,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4463,7 +4441,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4473,7 +4451,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4483,7 +4461,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4493,7 +4471,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -4503,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4513,7 +4491,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -4523,7 +4501,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4533,7 +4511,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -4543,7 +4521,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4553,7 +4531,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -4563,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4573,7 +4551,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -4583,7 +4561,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4593,7 +4571,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4603,7 +4581,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -4613,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -4623,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -4633,7 +4611,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -4643,7 +4621,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4653,7 +4631,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4663,7 +4641,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4673,7 +4651,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4683,7 +4661,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4693,7 +4671,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -4703,7 +4681,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -4713,7 +4691,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -4723,7 +4701,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -4733,7 +4711,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -4743,7 +4721,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -4753,7 +4731,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -4763,7 +4741,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -4773,7 +4751,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -4783,7 +4761,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -4793,7 +4771,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -4803,7 +4781,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -4813,7 +4791,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -4823,7 +4801,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4833,7 +4811,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -4843,7 +4821,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -4853,7 +4831,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -4863,7 +4841,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -4873,7 +4851,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -4883,7 +4861,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -4893,7 +4871,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -4903,7 +4881,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -4913,7 +4891,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -4923,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -4933,7 +4911,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -4943,7 +4921,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -4953,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -4963,7 +4941,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -4973,7 +4951,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -4983,7 +4961,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -4993,7 +4971,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -5003,7 +4981,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -5013,7 +4991,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -5023,7 +5001,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -5033,7 +5011,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -5043,7 +5021,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5053,7 +5031,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -5063,7 +5041,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -5073,7 +5051,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -5083,7 +5061,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -5093,7 +5071,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -5103,7 +5081,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -5113,7 +5091,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -5123,7 +5101,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -5133,7 +5111,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5143,7 +5121,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -5153,7 +5131,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -5163,7 +5141,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -5173,7 +5151,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -5183,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -5462,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0D496-3BD6-4FBB-A165-F439C62BEF69}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5481,8 +5459,8 @@
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>110</v>
+      <c r="B1" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -5492,7 +5470,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5501,8 +5479,8 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>112</v>
+      <c r="B3" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -5515,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -5524,8 +5502,8 @@
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>114</v>
+      <c r="B5" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5536,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5547,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -5558,7 +5536,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5568,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5578,7 +5556,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -5588,7 +5566,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5598,7 +5576,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -5608,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -5618,7 +5596,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5628,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -5638,7 +5616,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -5648,7 +5626,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5658,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -5668,7 +5646,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -5678,7 +5656,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5688,7 +5666,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5698,7 +5676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -5708,7 +5686,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5718,7 +5696,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -5728,7 +5706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -5738,7 +5716,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -5748,7 +5726,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -5758,7 +5736,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5768,7 +5746,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5778,7 +5756,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -5788,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -5798,7 +5776,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5808,7 +5786,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -5818,7 +5796,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -5828,7 +5806,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -5838,7 +5816,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -5848,7 +5826,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -5858,7 +5836,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -5868,7 +5846,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -5878,7 +5856,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -5888,7 +5866,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5898,7 +5876,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5908,7 +5886,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -5918,7 +5896,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -5928,7 +5906,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -5938,7 +5916,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -5948,7 +5926,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5958,7 +5936,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -5968,7 +5946,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -5978,7 +5956,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -5988,7 +5966,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -5998,7 +5976,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -6008,7 +5986,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -6018,7 +5996,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -6028,7 +6006,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -6038,7 +6016,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -6048,7 +6026,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -6058,7 +6036,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -6068,7 +6046,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -6078,7 +6056,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -6088,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -6098,7 +6076,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -6108,7 +6086,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -6118,7 +6096,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -6128,7 +6106,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -6138,7 +6116,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -6148,7 +6126,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -6158,7 +6136,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -6168,7 +6146,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -6178,7 +6156,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -6188,7 +6166,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -6198,7 +6176,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -6208,7 +6186,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -6218,7 +6196,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -6228,7 +6206,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -6238,7 +6216,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -6248,7 +6226,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -6258,7 +6236,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -6268,7 +6246,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -6278,7 +6256,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -6288,7 +6266,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -6298,7 +6276,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -6308,7 +6286,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -6318,7 +6296,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -6328,7 +6306,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6338,7 +6316,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -6348,7 +6326,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -6358,7 +6336,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -6368,7 +6346,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -6378,7 +6356,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -6388,7 +6366,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -6398,7 +6376,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -6408,7 +6386,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -6418,7 +6396,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -6428,7 +6406,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -6438,7 +6416,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -6448,7 +6426,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -6458,7 +6436,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -6468,7 +6446,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -6478,7 +6456,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -6757,8 +6735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A19FFE-657A-FB46-AD22-B5337D725FAA}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6777,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -6787,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6797,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6810,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -6820,7 +6798,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -6831,7 +6809,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6842,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -6853,7 +6831,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6863,7 +6841,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6873,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -7693,7 +7671,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7712,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -7722,7 +7700,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7732,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7745,7 +7723,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -7755,7 +7733,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7766,7 +7744,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7777,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -7788,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7798,7 +7776,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -7808,7 +7786,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -8647,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -8656,7 +8634,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8666,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -8679,7 +8657,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -8689,7 +8667,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8700,7 +8678,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8711,7 +8689,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -8722,7 +8700,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8732,7 +8710,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8742,7 +8720,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -9582,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -9592,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9602,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -9615,7 +9593,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -9625,7 +9603,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -9636,7 +9614,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -9647,7 +9625,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -9658,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -9668,7 +9646,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9678,7 +9656,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -10681,7 +10659,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H13" t="str">
         <f>RIGHT(G13, LEN(G13)-FIND(" ", G13))</f>
@@ -10702,7 +10680,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:I23" si="0">RIGHT(G14, LEN(G14)-FIND(" ", G14))</f>
@@ -10723,7 +10701,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -10744,7 +10722,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -10765,7 +10743,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -10786,7 +10764,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -10807,7 +10785,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -10828,7 +10806,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -10849,7 +10827,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -10870,7 +10848,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -10891,7 +10869,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="G23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -10912,7 +10890,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ref="H24:I24" si="1">RIGHT(G24, LEN(G24)-FIND(" ", G24))</f>
@@ -10933,7 +10911,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ref="H25:I25" si="2">RIGHT(G25, LEN(G25)-FIND(" ", G25))</f>
@@ -10954,7 +10932,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ref="H26:I26" si="3">RIGHT(G26, LEN(G26)-FIND(" ", G26))</f>
@@ -10975,7 +10953,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:I27" si="4">RIGHT(G27, LEN(G27)-FIND(" ", G27))</f>
@@ -10996,7 +10974,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:I28" si="5">RIGHT(G28, LEN(G28)-FIND(" ", G28))</f>
@@ -11017,7 +10995,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:I29" si="6">RIGHT(G29, LEN(G29)-FIND(" ", G29))</f>
@@ -11038,7 +11016,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ref="H30:I30" si="7">RIGHT(G30, LEN(G30)-FIND(" ", G30))</f>
@@ -11059,7 +11037,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ref="H31:I31" si="8">RIGHT(G31, LEN(G31)-FIND(" ", G31))</f>
@@ -11080,7 +11058,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32:I32" si="9">RIGHT(G32, LEN(G32)-FIND(" ", G32))</f>
@@ -11101,7 +11079,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:I33" si="10">RIGHT(G33, LEN(G33)-FIND(" ", G33))</f>
@@ -11122,7 +11100,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="G34" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34:I34" si="11">RIGHT(G34, LEN(G34)-FIND(" ", G34))</f>
@@ -11143,7 +11121,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ref="H35:I35" si="12">RIGHT(G35, LEN(G35)-FIND(" ", G35))</f>
@@ -11164,7 +11142,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:I36" si="13">RIGHT(G36, LEN(G36)-FIND(" ", G36))</f>
@@ -11185,7 +11163,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ref="H37:I37" si="14">RIGHT(G37, LEN(G37)-FIND(" ", G37))</f>
@@ -11206,7 +11184,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ref="H38:I38" si="15">RIGHT(G38, LEN(G38)-FIND(" ", G38))</f>
@@ -11227,7 +11205,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ref="H39:I39" si="16">RIGHT(G39, LEN(G39)-FIND(" ", G39))</f>
@@ -11248,7 +11226,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ref="H40:I40" si="17">RIGHT(G40, LEN(G40)-FIND(" ", G40))</f>
@@ -11269,7 +11247,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ref="H41:I41" si="18">RIGHT(G41, LEN(G41)-FIND(" ", G41))</f>
@@ -11290,7 +11268,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42" si="19">RIGHT(G42, LEN(G42)-FIND(" ", G42))</f>
@@ -11311,7 +11289,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:I43" si="21">RIGHT(G43, LEN(G43)-FIND(" ", G43))</f>
@@ -11332,7 +11310,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ref="H44:I44" si="22">RIGHT(G44, LEN(G44)-FIND(" ", G44))</f>
@@ -11353,7 +11331,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="G45" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ref="H45:I45" si="23">RIGHT(G45, LEN(G45)-FIND(" ", G45))</f>
@@ -11374,7 +11352,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ref="H46:I46" si="24">RIGHT(G46, LEN(G46)-FIND(" ", G46))</f>
@@ -11395,7 +11373,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47:I47" si="25">RIGHT(G47, LEN(G47)-FIND(" ", G47))</f>
@@ -11416,7 +11394,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48:I48" si="26">RIGHT(G48, LEN(G48)-FIND(" ", G48))</f>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The1/the1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBC4779-6242-45E6-AB07-3797EC286EC0}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6518E57D-A5F2-4ACF-8061-834EFABE8CC5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="233">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -463,12 +463,6 @@
     <t>Junta SEKIGUCHI</t>
   </si>
   <si>
-    <t>Satone YOSHIDA</t>
-  </si>
-  <si>
-    <t>Rei KAWAMATA</t>
-  </si>
-  <si>
     <t>Daiki SANO</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
   </si>
   <si>
     <t>Yufei PAN</t>
-  </si>
-  <si>
-    <t>Meichi NARASAKI</t>
   </si>
   <si>
     <t>Dohyun LEE</t>
@@ -512,9 +503,6 @@
     <t>Nanako KURA</t>
   </si>
   <si>
-    <t>Momoka KANEKO</t>
-  </si>
-  <si>
     <t>Miku ISHII</t>
   </si>
   <si>
@@ -522,9 +510,6 @@
   </si>
   <si>
     <t>Manami YAMA</t>
-  </si>
-  <si>
-    <t>Mashiro KUZUU</t>
   </si>
   <si>
     <t>Futaba ITO</t>
@@ -823,6 +808,34 @@
   </si>
   <si>
     <t>Sarah L.</t>
+  </si>
+  <si>
+    <t>Rei KAWAMATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gea SHIMADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anon MATSUFUJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Satone YOSHIDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meichi NARASAKI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Momoka KANEKO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mashiro KUZUU</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1625,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -1635,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1645,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1658,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -1668,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1679,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1690,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -1701,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1711,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1721,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -1731,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1741,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1751,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -1761,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1771,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1781,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -1791,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1801,7 +1814,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1811,7 +1824,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1821,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1831,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1841,7 +1854,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1851,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1861,7 +1874,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1871,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1881,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1891,7 +1904,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1901,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1911,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1921,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1931,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1941,7 +1954,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1951,7 +1964,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1961,7 +1974,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1971,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1981,7 +1994,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1991,7 +2004,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2001,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2011,7 +2024,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2021,7 +2034,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2031,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2041,7 +2054,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2051,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2061,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2071,7 +2084,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -2081,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -2091,7 +2104,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2101,7 +2114,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2111,7 +2124,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2121,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2131,7 +2144,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2141,7 +2154,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2151,7 +2164,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2161,7 +2174,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2171,7 +2184,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2181,7 +2194,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2191,7 +2204,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2201,7 +2214,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2211,7 +2224,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2221,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2231,7 +2244,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -2241,7 +2254,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2251,7 +2264,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2261,7 +2274,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2271,7 +2284,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2281,7 +2294,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2291,7 +2304,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2301,7 +2314,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2311,7 +2324,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2321,7 +2334,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2331,7 +2344,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2341,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2351,7 +2364,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2361,7 +2374,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2371,7 +2384,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2381,7 +2394,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2391,7 +2404,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2401,7 +2414,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2411,7 +2424,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2421,7 +2434,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2431,7 +2444,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2441,7 +2454,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2451,7 +2464,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2461,7 +2474,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2471,7 +2484,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2481,7 +2494,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2491,7 +2504,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2501,7 +2514,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2511,7 +2524,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2521,7 +2534,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2531,7 +2544,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2541,7 +2554,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2551,7 +2564,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2561,7 +2574,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2571,7 +2584,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2581,7 +2594,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2591,7 +2604,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2601,7 +2614,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2611,7 +2624,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2621,7 +2634,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2920,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -2930,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2940,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2953,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -2963,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2974,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2985,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -2996,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3006,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3016,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -3026,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3036,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3046,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -3056,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3066,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3076,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -3086,7 +3099,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3096,7 +3109,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3106,7 +3119,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3116,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3126,7 +3139,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3136,7 +3149,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -3146,7 +3159,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3156,7 +3169,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -3166,7 +3179,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -3176,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3186,7 +3199,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3196,7 +3209,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3206,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3216,7 +3229,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3226,7 +3239,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3236,7 +3249,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3246,7 +3259,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3256,7 +3269,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3266,7 +3279,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3276,7 +3289,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3286,7 +3299,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3296,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3306,7 +3319,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3316,7 +3329,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -3326,7 +3339,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3336,7 +3349,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3346,7 +3359,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -3356,7 +3369,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -3366,7 +3379,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3376,7 +3389,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3386,7 +3399,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -3396,7 +3409,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3406,7 +3419,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -3416,7 +3429,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3426,7 +3439,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -3436,7 +3449,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -3446,7 +3459,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -3456,7 +3469,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -3466,7 +3479,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -3476,7 +3489,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -3486,7 +3499,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3496,7 +3509,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -3506,7 +3519,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -3516,7 +3529,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -3526,7 +3539,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -3536,7 +3549,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3546,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3556,7 +3569,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -3566,7 +3579,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3576,7 +3589,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -3586,7 +3599,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3596,7 +3609,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3606,7 +3619,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -3616,7 +3629,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -3626,7 +3639,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -3636,7 +3649,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3646,7 +3659,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -3656,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3666,7 +3679,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -4145,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A833-BC96-46FB-AD28-C9B05ABD08B5}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4165,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -4174,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4184,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4197,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -4207,7 +4220,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4218,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4249,8 +4262,8 @@
       <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>112</v>
+      <c r="B9" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4259,8 +4272,8 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>113</v>
+      <c r="B10" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -4270,8 +4283,8 @@
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>114</v>
+      <c r="B11" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4280,8 +4293,8 @@
       <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>115</v>
+      <c r="B12" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4290,8 +4303,8 @@
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>116</v>
+      <c r="B13" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -4300,8 +4313,8 @@
       <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>117</v>
+      <c r="B14" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4310,8 +4323,8 @@
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>118</v>
+      <c r="B15" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4320,8 +4333,8 @@
       <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>119</v>
+      <c r="B16" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -4331,7 +4344,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4341,7 +4354,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4350,8 +4363,8 @@
       <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>122</v>
+      <c r="B19" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4361,7 +4374,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4371,7 +4384,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4381,7 +4394,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4391,7 +4404,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4401,7 +4414,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4411,7 +4424,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4421,7 +4434,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4431,7 +4444,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4441,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4451,7 +4464,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4461,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4471,7 +4484,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -4481,7 +4494,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4491,7 +4504,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -4501,7 +4514,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4511,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -4521,7 +4534,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4531,7 +4544,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -4541,7 +4554,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4551,7 +4564,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -4561,7 +4574,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4571,7 +4584,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4581,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -4591,7 +4604,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -4601,7 +4614,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -4611,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -4621,7 +4634,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4631,7 +4644,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4641,7 +4654,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4651,7 +4664,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4661,7 +4674,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4671,7 +4684,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -4681,7 +4694,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -4691,7 +4704,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -4701,7 +4714,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -4711,7 +4724,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -4721,7 +4734,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -4731,7 +4744,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -4741,7 +4754,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -4751,7 +4764,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -4761,7 +4774,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -4771,7 +4784,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -4781,7 +4794,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -4791,7 +4804,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -4801,7 +4814,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4811,7 +4824,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -4821,7 +4834,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -4831,7 +4844,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -4841,7 +4854,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -4851,7 +4864,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -4861,7 +4874,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -4871,7 +4884,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -4881,7 +4894,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -4891,7 +4904,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -4901,7 +4914,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -4911,7 +4924,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -4921,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -4931,7 +4944,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -4941,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -4951,7 +4964,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -4961,7 +4974,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -4971,7 +4984,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -4981,7 +4994,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -4991,7 +5004,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -5001,7 +5014,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -5011,7 +5024,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -5021,7 +5034,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5031,7 +5044,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -5041,7 +5054,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -5051,7 +5064,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -5061,7 +5074,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -5071,7 +5084,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -5081,7 +5094,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -5091,7 +5104,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -5101,7 +5114,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -5111,7 +5124,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5121,7 +5134,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -5131,7 +5144,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -5141,7 +5154,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -5151,7 +5164,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -5161,7 +5174,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -5440,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0D496-3BD6-4FBB-A165-F439C62BEF69}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5460,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -5470,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5480,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -5493,7 +5506,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -5503,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5514,7 +5527,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5525,7 +5538,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -5536,7 +5549,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5546,7 +5559,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5555,8 +5568,8 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>128</v>
+      <c r="B10" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -5565,8 +5578,8 @@
       <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>129</v>
+      <c r="B11" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5575,8 +5588,8 @@
       <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>130</v>
+      <c r="B12" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -5586,7 +5599,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -5595,8 +5608,8 @@
       <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>132</v>
+      <c r="B14" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5605,8 +5618,8 @@
       <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>133</v>
+      <c r="B15" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -5615,8 +5628,8 @@
       <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>134</v>
+      <c r="B16" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -5626,7 +5639,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5636,7 +5649,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -5646,7 +5659,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -5656,7 +5669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5666,7 +5679,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5676,7 +5689,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -5686,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5696,7 +5709,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -5706,7 +5719,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -5716,7 +5729,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -5726,7 +5739,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -5736,7 +5749,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5746,7 +5759,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5756,7 +5769,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -5766,7 +5779,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -5776,7 +5789,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5786,7 +5799,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -5796,7 +5809,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -5806,7 +5819,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -5816,7 +5829,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -5826,7 +5839,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -5836,7 +5849,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -5846,7 +5859,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -5856,7 +5869,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -5866,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5876,7 +5889,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5886,7 +5899,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -5896,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -5906,7 +5919,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -5916,7 +5929,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -5926,7 +5939,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5936,7 +5949,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -5946,7 +5959,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -5956,7 +5969,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -5966,7 +5979,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -5976,7 +5989,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -5986,7 +5999,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -5996,7 +6009,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -6006,7 +6019,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -6016,7 +6029,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -6026,7 +6039,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -6036,7 +6049,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -6046,7 +6059,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -6056,7 +6069,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -6066,7 +6079,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -6076,7 +6089,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -6086,7 +6099,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -6096,7 +6109,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -6106,7 +6119,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -6116,7 +6129,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -6126,7 +6139,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -6136,7 +6149,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -6146,7 +6159,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -6156,7 +6169,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -6166,7 +6179,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -6176,7 +6189,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -6186,7 +6199,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -6196,7 +6209,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -6206,7 +6219,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -6216,7 +6229,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -6226,7 +6239,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -6236,7 +6249,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -6246,7 +6259,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -6256,7 +6269,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -6266,7 +6279,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -6276,7 +6289,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -6286,7 +6299,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -6296,7 +6309,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -6306,7 +6319,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6316,7 +6329,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -6326,7 +6339,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -6336,7 +6349,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -6346,7 +6359,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -6356,7 +6369,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -6366,7 +6379,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -6376,7 +6389,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -6386,7 +6399,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -6396,7 +6409,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -6406,7 +6419,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -6416,7 +6429,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -6426,7 +6439,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -6436,7 +6449,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -6446,7 +6459,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -6456,7 +6469,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -6755,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -6765,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6775,7 +6788,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6788,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -6798,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -6809,7 +6822,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6820,7 +6833,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -6831,7 +6844,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6841,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6851,7 +6864,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -7690,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -7700,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7710,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7723,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -7733,7 +7746,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7744,7 +7757,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7755,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -7766,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7776,7 +7789,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -7786,7 +7799,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -8625,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -8634,7 +8647,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8644,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -8657,7 +8670,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -8667,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8678,7 +8691,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8689,7 +8702,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -8700,7 +8713,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8710,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8720,7 +8733,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -9560,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -9570,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9580,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -9593,7 +9606,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -9603,7 +9616,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -9614,7 +9627,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -9625,7 +9638,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -9636,7 +9649,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -9646,7 +9659,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9656,7 +9669,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -10659,7 +10672,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H13" t="str">
         <f>RIGHT(G13, LEN(G13)-FIND(" ", G13))</f>
@@ -10680,7 +10693,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:I23" si="0">RIGHT(G14, LEN(G14)-FIND(" ", G14))</f>
@@ -10701,7 +10714,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -10722,7 +10735,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -10743,7 +10756,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="G17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -10764,7 +10777,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -10785,7 +10798,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -10806,7 +10819,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -10827,7 +10840,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -10848,7 +10861,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -10869,7 +10882,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -10890,7 +10903,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ref="H24:I24" si="1">RIGHT(G24, LEN(G24)-FIND(" ", G24))</f>
@@ -10911,7 +10924,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ref="H25:I25" si="2">RIGHT(G25, LEN(G25)-FIND(" ", G25))</f>
@@ -10932,7 +10945,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ref="H26:I26" si="3">RIGHT(G26, LEN(G26)-FIND(" ", G26))</f>
@@ -10953,7 +10966,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:I27" si="4">RIGHT(G27, LEN(G27)-FIND(" ", G27))</f>
@@ -10974,7 +10987,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:I28" si="5">RIGHT(G28, LEN(G28)-FIND(" ", G28))</f>
@@ -10995,7 +11008,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:I29" si="6">RIGHT(G29, LEN(G29)-FIND(" ", G29))</f>
@@ -11016,7 +11029,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ref="H30:I30" si="7">RIGHT(G30, LEN(G30)-FIND(" ", G30))</f>
@@ -11037,7 +11050,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ref="H31:I31" si="8">RIGHT(G31, LEN(G31)-FIND(" ", G31))</f>
@@ -11058,7 +11071,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32:I32" si="9">RIGHT(G32, LEN(G32)-FIND(" ", G32))</f>
@@ -11079,7 +11092,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:I33" si="10">RIGHT(G33, LEN(G33)-FIND(" ", G33))</f>
@@ -11100,7 +11113,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34:I34" si="11">RIGHT(G34, LEN(G34)-FIND(" ", G34))</f>
@@ -11121,7 +11134,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ref="H35:I35" si="12">RIGHT(G35, LEN(G35)-FIND(" ", G35))</f>
@@ -11142,7 +11155,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:I36" si="13">RIGHT(G36, LEN(G36)-FIND(" ", G36))</f>
@@ -11163,7 +11176,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ref="H37:I37" si="14">RIGHT(G37, LEN(G37)-FIND(" ", G37))</f>
@@ -11184,7 +11197,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ref="H38:I38" si="15">RIGHT(G38, LEN(G38)-FIND(" ", G38))</f>
@@ -11205,7 +11218,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ref="H39:I39" si="16">RIGHT(G39, LEN(G39)-FIND(" ", G39))</f>
@@ -11226,7 +11239,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ref="H40:I40" si="17">RIGHT(G40, LEN(G40)-FIND(" ", G40))</f>
@@ -11247,7 +11260,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ref="H41:I41" si="18">RIGHT(G41, LEN(G41)-FIND(" ", G41))</f>
@@ -11268,7 +11281,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42" si="19">RIGHT(G42, LEN(G42)-FIND(" ", G42))</f>
@@ -11289,7 +11302,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:I43" si="21">RIGHT(G43, LEN(G43)-FIND(" ", G43))</f>
@@ -11310,7 +11323,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ref="H44:I44" si="22">RIGHT(G44, LEN(G44)-FIND(" ", G44))</f>
@@ -11331,7 +11344,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ref="H45:I45" si="23">RIGHT(G45, LEN(G45)-FIND(" ", G45))</f>
@@ -11352,7 +11365,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ref="H46:I46" si="24">RIGHT(G46, LEN(G46)-FIND(" ", G46))</f>
@@ -11373,7 +11386,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47:I47" si="25">RIGHT(G47, LEN(G47)-FIND(" ", G47))</f>
@@ -11394,7 +11407,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48:I48" si="26">RIGHT(G48, LEN(G48)-FIND(" ", G48))</f>

--- a/static.xlsx
+++ b/static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2aa0dda8f38b74/デスクトップ/BPUMP/The1/the1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6518E57D-A5F2-4ACF-8061-834EFABE8CC5}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{25BF0422-1179-4F11-A350-148A70AF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB3C31E-B6AB-40F0-9764-1C463689FD7A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="2" activeTab="6" xr2:uid="{5DF35994-0507-450F-86A4-945F99D90598}"/>
   </bookViews>
   <sheets>
     <sheet name="asp_men" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="231">
   <si>
     <t>FUN2</t>
     <phoneticPr fontId="1"/>
@@ -521,39 +521,6 @@
     <t>Mao NAKAMURA</t>
   </si>
   <si>
-    <t>kessyou 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kessyou 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kessyou 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kessyou 4</t>
-  </si>
-  <si>
-    <t>kessyou 5</t>
-  </si>
-  <si>
-    <t>kessyou 6</t>
-  </si>
-  <si>
-    <t>kessyou 7</t>
-  </si>
-  <si>
-    <t>kessyou 8</t>
-  </si>
-  <si>
-    <t>kessyou 9</t>
-  </si>
-  <si>
-    <t>kessyou 10</t>
-  </si>
-  <si>
     <t>Yarden CHARNY</t>
   </si>
   <si>
@@ -835,6 +802,38 @@
   </si>
   <si>
     <t>Mashiro KUZUU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Melody SEKIKAWA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mao NAKAMURA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meini LI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sorato ANRAKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dohyun LEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yusuke SUGIMOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yufei PAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rei SUGIMOTO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1638,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -1648,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1658,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1671,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -1681,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1692,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1703,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -1714,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1724,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1734,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -1744,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1754,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1764,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -1774,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1784,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1794,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -1804,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1814,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1824,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1834,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1844,7 +1843,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1854,7 +1853,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1864,7 +1863,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1874,7 +1873,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1884,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1894,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1904,7 +1903,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1914,7 +1913,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1924,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1934,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1944,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1954,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1964,7 +1963,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1974,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1984,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1994,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2933,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -2943,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2953,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2966,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -2976,7 +2975,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2987,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2998,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -3009,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3019,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3029,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -3039,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4158,7 +4157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A833-BC96-46FB-AD28-C9B05ABD08B5}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4178,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -4187,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4197,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4210,7 +4209,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -4220,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4231,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4263,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4364,7 +4363,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4374,7 +4373,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5454,7 +5453,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5473,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -5483,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5493,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -5506,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -5516,7 +5515,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5527,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5609,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5639,7 +5638,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5649,7 +5648,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -6768,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -6778,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6788,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -6801,7 +6800,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -6811,7 +6810,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -6822,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6833,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -6844,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7703,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -7713,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7723,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -7736,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -7746,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -7757,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7768,7 +7767,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -7779,7 +7778,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8618,8 +8617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB51AC29-8C4E-A243-8D29-DA52D2852FA3}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8638,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D1" s="9"/>
     </row>
@@ -8647,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8657,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -8670,7 +8669,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -8680,7 +8679,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -8691,7 +8690,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -8702,7 +8701,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -8713,7 +8712,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8723,7 +8722,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8733,7 +8732,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -9554,7 +9553,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -9573,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
@@ -9583,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9593,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -9606,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
@@ -9616,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -9626,8 +9625,8 @@
       <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>136</v>
+      <c r="B6" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -9638,7 +9637,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
@@ -9649,7 +9648,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -9659,7 +9658,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9669,7 +9668,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
@@ -10672,7 +10671,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H13" t="str">
         <f>RIGHT(G13, LEN(G13)-FIND(" ", G13))</f>
@@ -10693,7 +10692,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:I23" si="0">RIGHT(G14, LEN(G14)-FIND(" ", G14))</f>
@@ -10714,7 +10713,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -10735,7 +10734,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="G16" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -10756,7 +10755,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -10777,7 +10776,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -10798,7 +10797,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -10819,7 +10818,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -10840,7 +10839,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="G21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -10861,7 +10860,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="G22" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -10882,7 +10881,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -10903,7 +10902,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ref="H24:I24" si="1">RIGHT(G24, LEN(G24)-FIND(" ", G24))</f>
@@ -10924,7 +10923,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ref="H25:I25" si="2">RIGHT(G25, LEN(G25)-FIND(" ", G25))</f>
@@ -10945,7 +10944,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ref="H26:I26" si="3">RIGHT(G26, LEN(G26)-FIND(" ", G26))</f>
@@ -10966,7 +10965,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:I27" si="4">RIGHT(G27, LEN(G27)-FIND(" ", G27))</f>
@@ -10987,7 +10986,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:I28" si="5">RIGHT(G28, LEN(G28)-FIND(" ", G28))</f>
@@ -11008,7 +11007,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:I29" si="6">RIGHT(G29, LEN(G29)-FIND(" ", G29))</f>
@@ -11029,7 +11028,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ref="H30:I30" si="7">RIGHT(G30, LEN(G30)-FIND(" ", G30))</f>
@@ -11050,7 +11049,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ref="H31:I31" si="8">RIGHT(G31, LEN(G31)-FIND(" ", G31))</f>
@@ -11071,7 +11070,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32:I32" si="9">RIGHT(G32, LEN(G32)-FIND(" ", G32))</f>
@@ -11092,7 +11091,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:I33" si="10">RIGHT(G33, LEN(G33)-FIND(" ", G33))</f>
@@ -11113,7 +11112,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34:I34" si="11">RIGHT(G34, LEN(G34)-FIND(" ", G34))</f>
@@ -11134,7 +11133,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ref="H35:I35" si="12">RIGHT(G35, LEN(G35)-FIND(" ", G35))</f>
@@ -11155,7 +11154,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:I36" si="13">RIGHT(G36, LEN(G36)-FIND(" ", G36))</f>
@@ -11176,7 +11175,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ref="H37:I37" si="14">RIGHT(G37, LEN(G37)-FIND(" ", G37))</f>
@@ -11197,7 +11196,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ref="H38:I38" si="15">RIGHT(G38, LEN(G38)-FIND(" ", G38))</f>
@@ -11218,7 +11217,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ref="H39:I39" si="16">RIGHT(G39, LEN(G39)-FIND(" ", G39))</f>
@@ -11239,7 +11238,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ref="H40:I40" si="17">RIGHT(G40, LEN(G40)-FIND(" ", G40))</f>
@@ -11260,7 +11259,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ref="H41:I41" si="18">RIGHT(G41, LEN(G41)-FIND(" ", G41))</f>
@@ -11281,7 +11280,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42" si="19">RIGHT(G42, LEN(G42)-FIND(" ", G42))</f>
@@ -11302,7 +11301,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:I43" si="21">RIGHT(G43, LEN(G43)-FIND(" ", G43))</f>
@@ -11323,7 +11322,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ref="H44:I44" si="22">RIGHT(G44, LEN(G44)-FIND(" ", G44))</f>
@@ -11344,7 +11343,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ref="H45:I45" si="23">RIGHT(G45, LEN(G45)-FIND(" ", G45))</f>
@@ -11365,7 +11364,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ref="H46:I46" si="24">RIGHT(G46, LEN(G46)-FIND(" ", G46))</f>
@@ -11386,7 +11385,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47:I47" si="25">RIGHT(G47, LEN(G47)-FIND(" ", G47))</f>
@@ -11407,7 +11406,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48:I48" si="26">RIGHT(G48, LEN(G48)-FIND(" ", G48))</f>
